--- a/what/kesehatan/df_result_lda_evaluated.xlsx
+++ b/what/kesehatan/df_result_lda_evaluated.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PetaKabar\what\kesehatan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{148EB698-78EC-4B4A-A9B9-5A63EBBD2B14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09C1DFA1-4510-494D-B8AF-35AD2116199D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="13776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="576">
   <si>
     <t>title_old</t>
   </si>
@@ -877,9 +877,6 @@
     <t>bertambah, pemeriksaan, infeksi, pasien, virus, corona</t>
   </si>
   <si>
-    <t>['data', 'corona', 'virus', 'pasien', 'covid']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\- Pemerintah kembali memperbarui data kasus Covid-19 di Indonesia._x000D_
 _x000D_
 Berdasarkan data dalam 24 jam terakhir hingga Selasa (13/12/2022), jumlah_x000D_
@@ -3540,9 +3537,6 @@
   </si>
   <si>
     <t>orang, angka, menyebut, virus</t>
-  </si>
-  <si>
-    <t>['polisi', 'virus', 'pelaku', 'kelompok', 'memiliki', 'tim', 'kepala']</t>
   </si>
   <si>
     <t xml:space="preserve">\- Kepala Badan Nasional Penanggulangan Terorisme (BNPT) Komjen Boy Rafli Amar_x000D_
@@ -7700,9 +7694,6 @@
     <t>OSO Hanura: Dari Dulu Capres yang Saya Dukung Menang, Hati-hati</t>
   </si>
   <si>
-    <t>['jakarta', 'mengaku', 'jokowi']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\- Ketua Umum DPP Partai Hati Nurani Rakyat (Hanura) Oesman Sapta Odang atau_x000D_
 OSO mengatakan, siapapun calon presiden (capres) yang dia dukung, pasti selalu_x000D_
 menang._x000D_
@@ -9956,9 +9947,6 @@
   </si>
   <si>
     <t>akibat, angka, dunia, darah, luka, komplikasi, infeksi, kehamilan, hamil, nanah, pasien, diabetes</t>
-  </si>
-  <si>
-    <t>['jakarta', 'rumah_sakit', 'diabetes', 'tubuh', 'sehat', 'infeksi', 'kulit', 'penyakit', 'darah', 'acara', 'pasien', 'jenis', 'terkait', 'mengalami', 'jantung']</t>
   </si>
   <si>
     <t xml:space="preserve">Istilah diabetes basah dengan diabetes kering sering terdengar di tengah_x000D_
@@ -11364,425 +11352,434 @@
  </t>
   </si>
   <si>
-    <t>['tanaman', 'menyebabkan', 'mencegah', 'penyakit', 'indonesia', 'masuk', 'gejala']</t>
-  </si>
-  <si>
-    <t>['buah', 'rumah_sakit', 'keluarga', 'kondisi', 'darah', 'kesehatan', 'memiliki', 'jantung', 'digelar', 'air']</t>
-  </si>
-  <si>
-    <t>['tubuh', 'kandungan', 'meningkatkan', 'perempuan', 'sehat', 'mencegah', 'mengandung', 'makanan', 'kesehatan', 'memiliki', 'membantu']</t>
-  </si>
-  <si>
-    <t>['rumah_sakit', 'kondisi', 'tersangka', 'perempuan', 'langsung', 'sehat', 'sakit', 'dokter', 'kesehatan', 'hukum']</t>
-  </si>
-  <si>
-    <t>['ditemukan', 'korban', 'kepala', 'penyakit', 'kali', 'rumah']</t>
-  </si>
-  <si>
-    <t>['vaksin', 'data', 'corona', 'kebijakan', 'persen', 'meningkatkan', 'virus', 'mencegah', 'sakit', 'semoga', 'kesehatan', 'terkait', 'covid', 'warga']</t>
-  </si>
-  <si>
-    <t>['tubuh', 'menyebabkan', 'virus', 'sehat', 'mencegah', 'infeksi', 'sakit', 'penyakit', 'kesehatan', 'memiliki', 'hiv', 'jenis', 'terkait', 'gejala', 'mengalami', 'dunia']</t>
-  </si>
-  <si>
-    <t>['bali', 'semoga', 'kesehatan']</t>
-  </si>
-  <si>
-    <t>['negara', 'peserta', 'semoga', 'pemerintah', 'kesehatan', 'indonesia', 'jenis', 'pendidikan', 'aturan']</t>
-  </si>
-  <si>
-    <t>['sekolah', 'kegiatan', 'meningkatkan', 'program', 'semoga', 'kesehatan', 'indonesia', 'memiliki', 'membantu', 'bantuan']</t>
-  </si>
-  <si>
-    <t>['obat', 'bencana', 'cianjur', 'korban', 'kepala', 'keluarga', 'kesehatan', 'indonesia', 'gempa', 'obat_obatan', 'membantu', 'terkait', 'rumah', 'warga', 'tim']</t>
-  </si>
-  <si>
-    <t>['usia', 'tubuh', 'kandungan', 'sehat', 'penyakit', 'darah', 'kesehatan', 'memiliki', 'jenis', 'mengalami']</t>
-  </si>
-  <si>
-    <t>['data', 'meningkatkan', 'target', 'sehat', 'program', 'puskesmas', 'semoga', 'dokter', 'pemerintah', 'kesehatan', 'indonesia', 'memiliki', 'terkait', 'daerah', 'angka', 'penyebab']</t>
-  </si>
-  <si>
-    <t>['pelayanan', 'jawa', 'langsung', 'program', 'bandung', 'kesehatan', 'indonesia', 'bpjs_kesehatan', 'acara', 'jenis', 'kerja', 'terkait', 'daerah', 'rumah', 'layanan', 'provinsi', 'mengaku', 'pendidikan']</t>
-  </si>
-  <si>
-    <t>['sistem', 'data', 'menyebabkan', 'meningkatkan', 'pemerintah', 'kesehatan', 'indonesia', 'terkait', 'layanan']</t>
-  </si>
-  <si>
-    <t>['keluarga', 'kondisi', 'ribu', 'perempuan', 'sehat', 'sakit', 'semoga', 'dokter', 'penyakit', 'memiliki', 'daerah', 'warga', 'mengaku', 'bantuan']</t>
-  </si>
-  <si>
-    <t>['korban', 'polisi', 'petugas', 'langsung', 'sakit', 'pelaku', 'kali', 'darah', 'laporan', 'rumah', 'warga']</t>
-  </si>
-  <si>
-    <t>['obat', 'polisi', 'tersangka', 'ribu', 'petugas', 'pelaku', 'bandung', 'kali', 'kesehatan', 'obat_obatan']</t>
-  </si>
-  <si>
-    <t>['negara', 'pelayanan', 'malam', 'bali', 'selamat', 'jalan', 'langsung', 'kali', 'kesehatan', 'kendaraan', 'memiliki']</t>
-  </si>
-  <si>
-    <t>['obat', 'ditemukan', 'mengurangi', 'meningkatkan', 'mencegah', 'mengandung', 'kulit', 'penyakit', 'makanan', 'memiliki', 'pasien', 'gejala']</t>
-  </si>
-  <si>
-    <t>['usia', 'tubuh', 'keluarga', 'jalan', 'penyebab', 'kegiatan', 'meningkatkan', 'sehat', 'penyakit', 'makanan', 'kesehatan', 'memiliki', 'membantu', 'dunia', 'rumah']</t>
-  </si>
-  <si>
-    <t>['obat', 'diabetes', 'tubuh', 'kondisi', 'sehat', 'ginjal', 'penyakit', 'kali', 'darah', 'kesehatan', 'indonesia', 'terkait', 'dunia', 'jantung', 'angka']</t>
-  </si>
-  <si>
-    <t>['polisi', 'kepala', 'data', 'rumah_sakit', 'persen', 'pemerintah', 'kesehatan', 'masuk', 'hukum', 'pasien', 'terkait', 'covid', 'provinsi']</t>
-  </si>
-  <si>
-    <t>['malam', 'kanker', 'diabetes', 'tubuh', 'kondisi', 'penyebab', 'mengurangi', 'kegiatan', 'meningkatkan', 'sehat', 'mencegah', 'sakit', 'penyakit', 'darah', 'kesehatan', 'memiliki', 'membantu', 'manfaat', 'mengalami', 'jantung', 'pendidikan']</t>
-  </si>
-  <si>
-    <t>['cianjur', 'korban', 'virus', 'sehat', 'mencegah', 'puskesmas', 'infeksi', 'akut', 'kulit', 'penyakit', 'kesehatan', 'gempa', 'warga', 'gejala']</t>
-  </si>
-  <si>
-    <t>['buah', 'korban', 'polisi', 'bali', 'jawa', 'petugas', 'kesehatan', 'mengalami', 'warga']</t>
-  </si>
-  <si>
-    <t>['data', 'corona', 'rumah_sakit', 'jawa', 'persen', 'virus', 'pemerintah', 'pasien', 'covid', 'angka']</t>
-  </si>
-  <si>
-    <t>['kepala', 'surat', 'keluarga', 'dunia', 'buah']</t>
-  </si>
-  <si>
-    <t>['korban', 'polisi', 'kepala', 'rumah_sakit', 'ribu', 'pelaku', 'kesehatan', 'pasien', 'kerja', 'mengalami', 'daerah', 'mengaku']</t>
-  </si>
-  <si>
-    <t>['obat', 'buah', 'kanker', 'tubuh', 'hewan', 'peserta', 'kondisi', 'menyebabkan', 'kandungan', 'meningkatkan', 'perempuan', 'virus', 'mencegah', 'infeksi', 'sakit', 'kulit', 'ginjal', 'dokter', 'penyakit', 'darah', 'makanan', 'kesehatan', 'memiliki', 'membantu', 'jenis', 'covid', 'mengalami', 'jantung', 'manfaat']</t>
-  </si>
-  <si>
-    <t>['tanaman', 'sekolah', 'obat', 'kepala', 'bali', 'tubuh', 'jawa', 'kandungan', 'meningkatkan', 'sakit', 'mengandung', 'kulit', 'penyakit', 'kali', 'kesehatan', 'indonesia', 'memiliki', 'acara', 'membantu', 'manfaat', 'rumah', 'tim']</t>
-  </si>
-  <si>
-    <t>['usia', 'vaksin', 'pelayanan', 'rumah_sakit', 'kebijakan', 'kondisi', 'vaksinasi', 'sehat', 'pemerintah', 'kesehatan', 'membantu', 'layanan', 'protokol_kesehatan', 'aturan']</t>
-  </si>
-  <si>
-    <t>['negara', 'malam', 'keluarga', 'kondisi', 'terima_kasih', 'menyebabkan', 'meningkatkan', 'langsung', 'sehat', 'mencegah', 'semoga', 'kesehatan', 'memiliki', 'membantu', 'kerja', 'bantuan', 'penyebab']</t>
-  </si>
-  <si>
-    <t>['sekolah', 'korban', 'polisi', 'jalan', 'tersangka', 'petugas', 'kali', 'kesehatan', 'terkait', 'mengalami']</t>
-  </si>
-  <si>
-    <t>['pelayanan', 'kegiatan', 'kandungan', 'petugas', 'sehat', 'darah', 'kesehatan', 'indonesia', 'hiv', 'layanan', 'digelar']</t>
-  </si>
-  <si>
-    <t>['data', 'kesehatan', 'kelompok', 'memiliki', 'aturan']</t>
-  </si>
-  <si>
-    <t>['jakarta', 'bencana', 'cianjur', 'korban', 'jalan', 'program', 'kali', 'kesehatan', 'terkait', 'digelar']</t>
-  </si>
-  <si>
-    <t>['jakarta', 'hewan', 'dokter', 'kesehatan', 'kerja', 'laporan']</t>
-  </si>
-  <si>
-    <t>['obat', 'bali', 'jalan', 'kandungan', 'penyakit', 'kali', 'kesehatan', 'mengaku']</t>
-  </si>
-  <si>
-    <t>['korban', 'polisi', 'tubuh', 'kondisi', 'petugas', 'langsung', 'kesehatan', 'dunia', 'warga', 'bantuan']</t>
-  </si>
-  <si>
-    <t>['usia', 'jalan', 'peserta', 'dokter', 'kesehatan', 'pandemi', 'daerah', 'mengaku', 'digelar', 'warga']</t>
-  </si>
-  <si>
-    <t>['jakarta', 'rumah_sakit', 'penyebab', 'program', 'puskesmas', 'sakit', 'penyakit', 'memiliki', 'warga']</t>
-  </si>
-  <si>
-    <t>['korban', 'rumah_sakit', 'sakit', 'kesehatan', 'laporan']</t>
-  </si>
-  <si>
-    <t>['jakarta', 'bencana', 'negara', 'rumah_sakit', 'kegiatan', 'persen', 'program', 'kali', 'kesehatan', 'indonesia', 'pandemi', 'membantu', 'kerja', 'covid', 'digelar']</t>
-  </si>
-  <si>
-    <t>['ditemukan', 'sistem', 'usia', 'kepala', 'data', 'keluarga', 'peserta', 'kondisi', 'penyakit', 'kali', 'kesehatan', 'kelompok', 'membantu', 'hukum', 'manfaat', 'dunia', 'laporan', 'tim']</t>
-  </si>
-  <si>
-    <t>['tubuh', 'menyebabkan', 'meningkatkan', 'sakit', 'kulit', 'kesehatan']</t>
-  </si>
-  <si>
-    <t>['jakarta', 'negara', 'kondisi', 'persen', 'target', 'pemerintah', 'kesehatan', 'memiliki', 'acara', 'manfaat', 'mengalami', 'daerah', 'pendidikan']</t>
-  </si>
-  <si>
-    <t>['doa', 'rumah_sakit', 'selamat', 'perempuan', 'pemerintah', 'kesehatan', 'pasien']</t>
-  </si>
-  <si>
-    <t>['jakarta', 'sistem', 'malam', 'terima_kasih', 'kegiatan', 'jawa', 'kesehatan', 'daerah', 'digelar']</t>
-  </si>
-  <si>
-    <t>['doa', 'tubuh', 'keluarga', 'terima_kasih', 'mengurangi', 'meningkatkan', 'langsung', 'sehat', 'sakit', 'relawan', 'semoga', 'kesehatan', 'memiliki', 'membantu', 'kerja', 'manfaat', 'dunia', 'bantuan']</t>
-  </si>
-  <si>
-    <t>['obat', 'kepala', 'tubuh', 'kondisi', 'virus', 'sakit', 'kesehatan', 'obat_obatan', 'hiv']</t>
-  </si>
-  <si>
-    <t>['usia', 'vaksin', 'korban', 'bali', 'hewan', 'vaksinasi', 'virus', 'langsung', 'kesehatan', 'terkait', 'laporan', 'rumah', 'warga']</t>
-  </si>
-  <si>
-    <t>['ditemukan', 'korban', 'kondisi', 'langsung', 'kali', 'polres', 'rumah', 'warga', 'mengaku', 'air', 'perempuan']</t>
-  </si>
-  <si>
-    <t>['ditemukan', 'mengurangi', 'sehat', 'kesehatan', 'memiliki', 'jenis', 'manfaat']</t>
-  </si>
-  <si>
-    <t>['kepala', 'rumah_sakit', 'kondisi', 'sehat', 'dokter', 'kesehatan']</t>
-  </si>
-  <si>
-    <t>['virus', 'sakit', 'penyakit', 'memiliki', 'dunia', 'tim']</t>
-  </si>
-  <si>
-    <t>['negara', 'pelayanan', 'kepala', 'keluarga', 'tersangka', 'petugas', 'kesehatan', 'indonesia', 'memiliki', 'rumah']</t>
-  </si>
-  <si>
-    <t>['obat', 'usia', 'buah', 'negara', 'kanker', 'diabetes', 'tubuh', 'kondisi', 'menyebabkan', 'kandungan', 'meningkatkan', 'virus', 'infeksi', 'kulit', 'dokter', 'penyakit', 'darah', 'makanan', 'kesehatan', 'indonesia', 'memiliki', 'obat_obatan', 'membantu', 'pasien', 'jenis', 'kerja', 'mengalami', 'jantung', 'air', 'mencegah', 'manfaat']</t>
-  </si>
-  <si>
-    <t>['negara', 'keluarga', 'infeksi', 'kulit', 'penyakit', 'pandemi', 'covid', 'dunia']</t>
-  </si>
-  <si>
-    <t>['obat', 'diabetes', 'tubuh', 'menyebabkan', 'virus', 'infeksi', 'ginjal', 'penyakit', 'kesehatan', 'memiliki', 'terkait', 'gejala', 'jantung']</t>
-  </si>
-  <si>
-    <t>['malam', 'kegiatan', 'gereja', 'kesehatan', 'polres', 'terkait', 'covid', 'warga']</t>
-  </si>
-  <si>
-    <t>['tubuh', 'menyebabkan', 'persen', 'mengandung', 'kali', 'makanan', 'kesehatan', 'memiliki', 'jenis', 'jantung', 'air']</t>
-  </si>
-  <si>
-    <t>['obat', 'negara', 'corona', 'rumah_sakit', 'ribu', 'mengurangi', 'menyebabkan', 'persen', 'virus', 'infeksi', 'sakit', 'akut', 'pemerintah', 'darah', 'kesehatan', 'pandemi', 'pasien', 'covid', 'laporan', 'provinsi', 'angka']</t>
-  </si>
-  <si>
-    <t>['kepala', 'rumah_sakit', 'jalan', 'kondisi', 'jawa', 'kesehatan', 'bpjs_kesehatan', 'memiliki', 'kerja', 'daerah', 'layanan', 'mengaku']</t>
-  </si>
-  <si>
-    <t>['jakarta', 'tersangka', 'jawa', 'kesehatan', 'indonesia', 'perusahaan', 'terkait']</t>
-  </si>
-  <si>
-    <t>['tanaman', 'meningkatkan', 'sehat', 'penyakit', 'gejala']</t>
-  </si>
-  <si>
-    <t>['corona', 'virus', 'kesehatan', 'indonesia', 'pandemi', 'pasien', 'covid', 'protokol_kesehatan']</t>
-  </si>
-  <si>
-    <t>['bencana', 'cianjur', 'negara', 'korban', 'malam', 'kondisi', 'kegiatan', 'langsung', 'bandung', 'dokter', 'makanan', 'kesehatan', 'gempa', 'kelompok', 'acara', 'membantu', 'kerja', 'terkait', 'mengalami', 'dunia', 'bantuan', 'pengungsi', 'air']</t>
-  </si>
-  <si>
-    <t>['jakarta', 'usia', 'vaksin', 'kepala', 'bandung', 'kesehatan', 'layanan', 'aturan', 'ribu']</t>
-  </si>
-  <si>
-    <t>['tanaman', 'obat', 'kondisi', 'langsung', 'penyakit', 'darah', 'kesehatan', 'memiliki', 'jenis', 'manfaat', 'daerah']</t>
-  </si>
-  <si>
-    <t>['pelayanan', 'kebijakan', 'peserta', 'mengurangi', 'jawa', 'kesehatan', 'indonesia', 'provinsi', 'digelar']</t>
-  </si>
-  <si>
-    <t>['kepala', 'rumah_sakit', 'persen', 'hukum', 'pasien', 'terkait', 'covid']</t>
-  </si>
-  <si>
-    <t>['kepala', 'bali', 'langsung', 'sehat', 'penyakit', 'kesehatan', 'memiliki', 'terkait', 'air']</t>
-  </si>
-  <si>
-    <t>['tubuh', 'kondisi', 'menyebabkan', 'infeksi', 'kulit', 'penyakit', 'darah', 'gejala', 'jantung']</t>
-  </si>
-  <si>
-    <t>['jakarta', 'bencana', 'cianjur', 'korban', 'langsung', 'kesehatan', 'acara', 'kerja']</t>
-  </si>
-  <si>
-    <t>['tersangka', 'petugas', 'perempuan', 'semoga', 'acara', 'daerah', 'provinsi', 'sakit']</t>
-  </si>
-  <si>
-    <t>['vaksin', 'bali', 'tubuh', 'kebijakan', 'ribu', 'vaksinasi', 'persen', 'puskesmas', 'semoga', 'penyakit', 'kesehatan', 'pandemi', 'covid', 'dunia', 'rumah', 'provinsi', 'angka', 'penyebab']</t>
-  </si>
-  <si>
-    <t>['jalan', 'sehat', 'kesehatan', 'mengalami']</t>
-  </si>
-  <si>
-    <t>['malam', 'bandung', 'kali', 'kesehatan', 'indonesia', 'pandemi', 'masuk', 'acara', 'covid', 'protokol_kesehatan']</t>
-  </si>
-  <si>
-    <t>['jakarta', 'negara', 'kebijakan', 'target', 'langsung', 'pemerintah', 'kesehatan', 'indonesia', 'masuk', 'bpjs_kesehatan', 'digelar']</t>
-  </si>
-  <si>
-    <t>['pelayanan', 'tubuh', 'kondisi', 'jawa', 'pemerintah', 'kesehatan', 'kendaraan', 'protokol_kesehatan', 'ribu']</t>
-  </si>
-  <si>
-    <t>['tanaman', 'kepala', 'jalan', 'hewan', 'kondisi', 'kendaraan', 'masuk', 'memiliki', 'rumah', 'warga']</t>
-  </si>
-  <si>
-    <t>['corona', 'tubuh', 'kebijakan', 'vaksinasi', 'persen', 'infeksi', 'pemerintah', 'kesehatan', 'indonesia', 'pandemi', 'masuk', 'memiliki', 'terkait', 'covid', 'dunia', 'warga']</t>
-  </si>
-  <si>
-    <t>['jakarta', 'negara', 'kepala', 'kegiatan', 'kesehatan', 'memiliki', 'covid', 'digelar']</t>
-  </si>
-  <si>
-    <t>['jakarta', 'malam', 'jalan', 'kondisi', 'ribu', 'puskesmas', 'kesehatan', 'hukum', 'mengalami', 'daerah', 'bantuan', 'negara']</t>
-  </si>
-  <si>
-    <t>['bencana', 'surat', 'kondisi', 'pasien', 'covid']</t>
-  </si>
-  <si>
-    <t>['sistem', 'data', 'surat', 'peserta', 'perempuan', 'program', 'sakit', 'kesehatan', 'bpjs_kesehatan', 'membantu', 'perusahaan', 'terkait', 'manfaat', 'dunia', 'layanan']</t>
-  </si>
-  <si>
-    <t>['tanaman', 'ditemukan', 'buah', 'negara', 'malam', 'sakit', 'kesehatan', 'memiliki', 'perusahaan', 'jenis', 'dunia', 'rumah']</t>
-  </si>
-  <si>
-    <t>['pelayanan', 'jalan', 'pemerintah', 'kesehatan', 'rumah', 'aturan']</t>
-  </si>
-  <si>
-    <t>['ditemukan', 'vaksin', 'rumah_sakit', 'vaksinasi', 'target', 'langsung', 'pemerintah', 'kesehatan', 'laporan', 'provinsi', 'tim']</t>
-  </si>
-  <si>
-    <t>['ditemukan', 'sistem', 'kepala', 'tubuh', 'kondisi', 'penyebab', 'persen', 'infeksi', 'gejala', 'air']</t>
-  </si>
-  <si>
-    <t>['malam', 'kepala', 'rumah_sakit', 'kondisi', 'langsung', 'kesehatan', 'polres', 'pasien', 'polisi']</t>
-  </si>
-  <si>
-    <t>['negara', 'data', 'rumah_sakit', 'peserta', 'terima_kasih', 'kegiatan', 'persen', 'meningkatkan', 'langsung', 'sehat', 'program', 'puskesmas', 'kesehatan', 'bpjs_kesehatan', 'memiliki', 'hukum', 'terkait', 'daerah', 'rumah', 'warga', 'pelayanan']</t>
-  </si>
-  <si>
-    <t>['obat', 'usia', 'vaksin', 'kondisi', 'vaksinasi', 'virus', 'infeksi', 'mengandung', 'penyakit', 'kesehatan', 'jenis']</t>
-  </si>
-  <si>
-    <t>['pelayanan', 'data', 'ribu', 'kegiatan', 'persen', 'kali', 'kesehatan', 'posko', 'membantu', 'terkait']</t>
-  </si>
-  <si>
-    <t>['ditemukan', 'data', 'kebijakan', 'sehat', 'kali', 'kesehatan', 'kelompok', 'membantu', 'manfaat', 'mengalami', 'daerah', 'tim', 'dunia']</t>
-  </si>
-  <si>
-    <t>['jakarta', 'pelayanan', 'kebijakan', 'persen', 'kesehatan', 'indonesia']</t>
-  </si>
-  <si>
-    <t>['tubuh', 'kandungan', 'meningkatkan', 'sehat', 'penyakit', 'kali', 'darah', 'makanan', 'kesehatan', 'membantu', 'manfaat', 'jantung', 'tim']</t>
-  </si>
-  <si>
-    <t>['vaksin', 'korban', 'bali', 'rumah_sakit', 'surat', 'kondisi', 'puskesmas', 'pemerintah', 'kesehatan', 'hukum', 'warga']</t>
-  </si>
-  <si>
-    <t>['korban', 'rumah_sakit', 'surat', 'sakit', 'dokter']</t>
-  </si>
-  <si>
-    <t>['gereja', 'kali', 'kesehatan', 'memiliki', 'membantu', 'mengaku', 'protokol_kesehatan']</t>
-  </si>
-  <si>
-    <t>['sekolah', 'cianjur', 'korban', 'kepala', 'keluarga', 'ribu', 'perempuan', 'kesehatan', 'indonesia', 'gempa', 'kelompok', 'rumah', 'tim', 'bantuan', 'pengungsi', 'warga']</t>
-  </si>
-  <si>
-    <t>['kepala', 'persen', 'langsung', 'program', 'bandung', 'semoga', 'kesehatan', 'indonesia', 'kelompok', 'acara', 'kerja', 'daerah', 'tim', 'angka', 'digelar']</t>
-  </si>
-  <si>
-    <t>['pelayanan', 'jalan', 'penyebab', 'jawa', 'petugas', 'kali', 'darah', 'kesehatan', 'mengalami', 'jantung']</t>
-  </si>
-  <si>
-    <t>['obat', 'jakarta', 'korban', 'gagal_ginjal', 'akut', 'ginjal', 'pemerintah', 'penyakit', 'kesehatan', 'indonesia', 'terkait', 'mengalami', 'provinsi', 'tim', 'laporan']</t>
-  </si>
-  <si>
-    <t>['vaksin', 'data', 'rumah_sakit', 'keluarga', 'target', 'kesehatan', 'pandemi', 'masuk', 'terkait', 'covid', 'warga', 'protokol_kesehatan', 'jokowi']</t>
-  </si>
-  <si>
-    <t>['data', 'peserta', 'kondisi', 'kegiatan', 'jawa', 'meningkatkan', 'langsung', 'sehat', 'program', 'sakit', 'pemerintah', 'kesehatan', 'indonesia', 'bpjs_kesehatan', 'memiliki', 'daerah', 'warga', 'aturan']</t>
-  </si>
-  <si>
-    <t>['negara', 'rumah_sakit', 'peserta', 'jawa', 'dokter', 'kali', 'kesehatan', 'memiliki', 'acara', 'pendidikan', 'digelar']</t>
-  </si>
-  <si>
-    <t>['korban', 'rumah_sakit', 'petugas', 'sakit', 'kesehatan', 'tim']</t>
-  </si>
-  <si>
-    <t>['usia', 'selamat', 'jawa', 'perempuan', 'kali', 'kesehatan', 'indonesia', 'jokowi']</t>
-  </si>
-  <si>
-    <t>['jalan', 'kegiatan', 'jawa', 'kesehatan', 'polres']</t>
-  </si>
-  <si>
-    <t>['bencana', 'cianjur', 'jawa', 'langsung', 'relawan', 'semoga', 'kesehatan', 'gempa', 'posko', 'rumah', 'warga']</t>
-  </si>
-  <si>
-    <t>['jakarta', 'virus', 'infeksi', 'penyakit', 'makanan', 'masuk']</t>
-  </si>
-  <si>
-    <t>['tanaman', 'menyebabkan', 'penyakit', 'jenis', 'gejala', 'mengalami']</t>
-  </si>
-  <si>
-    <t>['sekolah', 'jakarta', 'sistem', 'pelayanan', 'malam', 'bali', 'rumah_sakit', 'keluarga', 'kondisi', 'kegiatan', 'persen', 'meningkatkan', 'langsung', 'sehat', 'program', 'pemerintah', 'kali', 'kesehatan', 'indonesia', 'pandemi', 'membantu', 'pasien', 'laporan', 'layanan', 'provinsi', 'mengaku', 'pendidikan', 'digelar']</t>
-  </si>
-  <si>
-    <t>['tubuh', 'ribu', 'langsung', 'sehat', 'kulit', 'penyakit', 'darah', 'makanan', 'kesehatan', 'kendaraan', 'memiliki', 'warga', 'air']</t>
-  </si>
-  <si>
-    <t>['rumah_sakit', 'tubuh', 'kondisi', 'pasien']</t>
-  </si>
-  <si>
-    <t>['jakarta', 'polisi', 'keluarga', 'jalan', 'sakit', 'kesehatan', 'masuk', 'memiliki', 'warga', 'mengaku', 'bantuan']</t>
-  </si>
-  <si>
-    <t>['usia', 'doa', 'selamat', 'gereja', 'sakit', 'semoga', 'dunia']</t>
-  </si>
-  <si>
-    <t>['negara', 'surat', 'keluarga', 'kondisi', 'kandungan', 'meningkatkan', 'perempuan', 'sehat', 'program', 'mencegah', 'kesehatan', 'kendaraan', 'memiliki', 'hukum', 'terkait', 'rumah', 'pendidikan', 'air']</t>
-  </si>
-  <si>
-    <t>['obat', 'sistem', 'langsung', 'program', 'sakit', 'pemerintah', 'makanan', 'kesehatan', 'memiliki', 'terkait', 'daerah', 'pendidikan']</t>
-  </si>
-  <si>
-    <t>['ditemukan', 'buah', 'diabetes', 'tubuh', 'kondisi', 'mengurangi', 'menyebabkan', 'kandungan', 'mencegah', 'penyakit', 'darah', 'makanan', 'kesehatan', 'membantu', 'jenis', 'jantung', 'manfaat']</t>
-  </si>
-  <si>
-    <t>['corona', 'virus', 'kesehatan', 'indonesia', 'pandemi', 'pasien', 'covid']</t>
-  </si>
-  <si>
-    <t>['vaksin', 'jalan', 'penyebab', 'virus', 'kesehatan', 'indonesia', 'pasien', 'daerah']</t>
-  </si>
-  <si>
-    <t>['menyebabkan', 'kandungan', 'langsung', 'sehat', 'mencegah', 'sakit', 'kulit', 'kali', 'kesehatan', 'memiliki', 'membantu', 'manfaat', 'dunia', 'rumah']</t>
-  </si>
-  <si>
-    <t>['jakarta', 'malam', 'doa', 'persen', 'gereja', 'pemerintah', 'kesehatan', 'covid', 'warga', 'protokol_kesehatan']</t>
-  </si>
-  <si>
-    <t>['ditemukan', 'korban', 'polisi', 'tubuh', 'keluarga', 'kondisi', 'jawa', 'petugas', 'sakit', 'penyakit', 'kesehatan', 'membantu', 'rumah', 'jantung', 'warga']</t>
-  </si>
-  <si>
-    <t>['kanker', 'langsung', 'mengandung', 'kesehatan', 'manfaat', 'mengaku']</t>
-  </si>
-  <si>
-    <t>['jakarta', 'usia', 'tubuh', 'kondisi', 'masuk', 'tim']</t>
-  </si>
-  <si>
-    <t>['jakarta', 'ditemukan', 'vaksin', 'persen', 'sakit', 'kali', 'kesehatan', 'pasien', 'covid', 'warga', 'gejala']</t>
-  </si>
-  <si>
-    <t>['data', 'persen', 'kali', 'indonesia', 'covid', 'warga', 'jokowi']</t>
-  </si>
-  <si>
-    <t>['malam', 'jalan', 'jawa', 'indonesia', 'rumah', 'mengaku']</t>
-  </si>
-  <si>
-    <t>['obat', 'buah', 'kanker', 'diabetes', 'penyebab', 'mengurangi', 'langsung', 'mencegah', 'sakit', 'mengandung', 'akut', 'ginjal', 'dokter', 'penyakit', 'kali', 'kesehatan', 'membantu', 'pasien', 'jenis', 'gejala']</t>
-  </si>
-  <si>
-    <t>['usia', 'buah', 'diabetes', 'tubuh', 'keluarga', 'penyebab', 'persen', 'mencegah', 'mengandung', 'penyakit', 'kali', 'darah', 'kesehatan', 'memiliki', 'terkait', 'dunia', 'jantung', 'air']</t>
-  </si>
-  <si>
-    <t>['sistem', 'program', 'pemerintah', 'penyakit', 'kesehatan', 'pandemi', 'covid', 'rumah', 'protokol_kesehatan', 'air']</t>
-  </si>
-  <si>
-    <t>['obat', 'ditemukan', 'sistem', 'vaksin', 'tubuh', 'kondisi', 'ribu', 'menyebabkan', 'vaksinasi', 'meningkatkan', 'virus', 'langsung', 'mencegah', 'penyakit', 'kesehatan', 'kelompok', 'pandemi', 'memiliki', 'terkait', 'covid', 'gejala', 'angka', 'dunia']</t>
-  </si>
-  <si>
-    <t>['sistem', 'pelayanan', 'kanker', 'rumah_sakit', 'langsung', 'sehat', 'program', 'dokter', 'pemerintah', 'penyakit', 'kesehatan', 'pandemi', 'masuk', 'terkait', 'covid', 'daerah', 'jantung', 'pendidikan', 'puskesmas']</t>
-  </si>
-  <si>
-    <t>['jakarta', 'peserta', 'jawa', 'bandung', 'kali', 'kesehatan', 'indonesia', 'acara', 'membantu', 'provinsi', 'mengaku', 'digelar']</t>
+    <t>['menyebabkan', 'penyakit', 'gejala', 'indonesia', 'tanaman', 'kondisi']</t>
+  </si>
+  <si>
+    <t>['air', 'memiliki', 'keluarga', 'darah', 'kesehatan', 'tubuh', 'kondisi', 'jantung', 'rumah_sakit']</t>
+  </si>
+  <si>
+    <t>['makanan', 'menyebabkan', 'memiliki', 'kesehatan', 'perempuan', 'tubuh', 'membantu', 'meningkatkan']</t>
+  </si>
+  <si>
+    <t>['dokter', 'mengaku', 'keluarga', 'kesehatan', 'perempuan', 'sakit', 'langsung', 'kondisi', 'rumah_sakit']</t>
+  </si>
+  <si>
+    <t>['ditemukan', 'kali', 'korban', 'rumah', 'penyakit', 'informasi']</t>
+  </si>
+  <si>
+    <t>['corona', 'presiden_joko', 'virus', 'vaksinasi', 'semoga', 'terkait', 'kesehatan', 'vaksin', 'warga', 'sakit', 'persen', 'data', 'covid', 'meningkatkan', 'kebijakan']</t>
+  </si>
+  <si>
+    <t>['virus', 'menyebabkan', 'jenis', 'terkait', 'memiliki', 'kesehatan', 'infeksi', 'gejala', 'hiv', 'dunia', 'tubuh', 'sakit', 'penyakit', 'informasi', 'mengalami']</t>
+  </si>
+  <si>
+    <t>['semoga', 'jakarta', 'bali', 'kesehatan']</t>
+  </si>
+  <si>
+    <t>['pendidikan', 'semoga', 'peserta', 'daerah', 'kesehatan', 'indonesia', 'warga', 'kerja', 'negara', 'pemerintah', 'informasi', 'jenis']</t>
+  </si>
+  <si>
+    <t>['bantuan', 'program', 'sekolah', 'semoga', 'memiliki', 'natal', 'kesehatan', 'kegiatan', 'indonesia', 'membantu', 'meningkatkan', 'pemerintah']</t>
+  </si>
+  <si>
+    <t>['gempa', 'air', 'terkait', 'keluarga', 'pengungsi', 'kesehatan', 'korban', 'bencana', 'obat', 'indonesia', 'warga', 'rumah', 'membantu', 'tim', 'cianjur']</t>
+  </si>
+  <si>
+    <t>['virus', 'pasien', 'indonesia', 'data', 'covid', 'corona']</t>
+  </si>
+  <si>
+    <t>['jenis', 'penyakit', 'memiliki', 'usia', 'darah', 'kesehatan', 'manfaat', 'tubuh', 'kondisi', 'mengalami']</t>
+  </si>
+  <si>
+    <t>['program', 'dokter', 'semoga', 'terkait', 'memiliki', 'daerah', 'kesehatan', 'puskesmas', 'angka', 'indonesia', 'data', 'meningkatkan', 'pemerintah']</t>
+  </si>
+  <si>
+    <t>['program', 'mengaku', 'bandung', 'acara', 'pendidikan', 'terkait', 'informasi', 'daerah', 'kesehatan', 'indonesia', 'pelayanan', 'kerja', 'rumah', 'layanan', 'langsung', 'meningkatkan', 'rumah_sakit', 'jenis']</t>
+  </si>
+  <si>
+    <t>['menyebabkan', 'terkait', 'kesehatan', 'puskesmas', 'indonesia', 'layanan', 'data', 'meningkatkan', 'pemerintah']</t>
+  </si>
+  <si>
+    <t>['bantuan', 'dokter', 'mengaku', 'semoga', 'penyakit', 'terkait', 'memiliki', 'keluarga', 'daerah', 'perempuan', 'warga', 'sakit', 'kondisi', 'rumah_sakit']</t>
+  </si>
+  <si>
+    <t>['polisi', 'darah', 'kali', 'korban', 'warga', 'sakit', 'petugas', 'rumah', 'langsung', 'pelaku', 'rumah_sakit']</t>
+  </si>
+  <si>
+    <t>['polisi', 'bandung', 'kesehatan', 'kali', 'obat', 'petugas', 'personel', 'pelaku', 'tim']</t>
+  </si>
+  <si>
+    <t>['kendaraan', 'semoga', 'memiliki', 'selamat', 'bali', 'kesehatan', 'kali', 'jalan', 'warga', 'pelayanan', 'layanan', 'negara', 'langsung', 'malam', 'informasi']</t>
+  </si>
+  <si>
+    <t>['air', 'makanan', 'ditemukan', 'pasien', 'memiliki', 'gejala', 'kulit', 'obat', 'membantu', 'meningkatkan', 'penyakit']</t>
+  </si>
+  <si>
+    <t>['makanan', 'semoga', 'memiliki', 'keluarga', 'usia', 'membantu', 'kesehatan', 'dunia', 'kegiatan', 'tubuh', 'rumah', 'jalan', 'meningkatkan', 'penyakit', 'jenis']</t>
+  </si>
+  <si>
+    <t>['ginjal', 'terkait', 'penyakit', 'darah', 'kesehatan', 'kali', 'dunia', 'obat', 'indonesia', 'angka', 'tubuh', 'kondisi', 'jantung', 'informasi']</t>
+  </si>
+  <si>
+    <t>['polisi', 'pasien', 'terkait', 'daerah', 'kesehatan', 'pelayanan', 'persen', 'rumah_sakit', 'data', 'covid', 'pemerintah', 'informasi']</t>
+  </si>
+  <si>
+    <t>['jantung', 'pendidikan', 'penyakit', 'memiliki', 'darah', 'kesehatan', 'manfaat', 'kegiatan', 'tubuh', 'sakit', 'membantu', 'meningkatkan', 'kondisi', 'malam', 'mengalami']</t>
+  </si>
+  <si>
+    <t>['gempa', 'virus', 'penyakit', 'cianjur', 'kesehatan', 'korban', 'gejala', 'kulit', 'puskesmas', 'warga', 'tubuh', 'sakit', 'infeksi', 'kondisi', 'akut', 'mengalami']</t>
+  </si>
+  <si>
+    <t>['polisi', 'bali', 'kesehatan', 'korban', 'warga', 'petugas', 'kondisi', 'mengalami']</t>
+  </si>
+  <si>
+    <t>['presiden_joko', 'virus', 'pasien', 'angka', 'indonesia', 'persen', 'data', 'covid', 'corona', 'pemerintah', 'rumah_sakit']</t>
+  </si>
+  <si>
+    <t>['and', 'perjalanan', 'keluarga', 'dunia']</t>
+  </si>
+  <si>
+    <t>['mengaku', 'polisi', 'pasien', 'daerah', 'kali', 'korban', 'kesehatan', 'kerja', 'jalan', 'pelaku', 'rumah_sakit', 'mengalami']</t>
+  </si>
+  <si>
+    <t>['peserta', 'memiliki', 'perempuan', 'obat', 'manfaat', 'kondisi', 'mengalami', 'dokter', 'menyebabkan', 'usia', 'kulit', 'sakit', 'meningkatkan', 'jantung', 'makanan', 'ginjal', 'darah', 'kesehatan', 'infeksi', 'virus', 'membantu', 'hewan', 'tubuh', 'covid', 'penyakit', 'jenis']</t>
+  </si>
+  <si>
+    <t>['semoga', 'memiliki', 'kali', 'manfaat', 'indonesia', 'obat', 'tanaman', 'sekolah', 'perjalanan', 'kulit', 'sakit', 'meningkatkan', 'tim', 'bali', 'kesehatan', 'acara', 'dunia', 'warga', 'tubuh', 'rumah', 'membantu', 'penyakit', 'informasi']</t>
+  </si>
+  <si>
+    <t>['dokter', 'vaksinasi', 'perjalanan', 'memiliki', 'usia', 'kesehatan', 'puskesmas', 'pelaku', 'vaksin', 'pelayanan', 'layanan', 'membantu', 'kondisi', 'kebijakan', 'pemerintah', 'rumah_sakit']</t>
+  </si>
+  <si>
+    <t>['bantuan', 'kondisi', 'menyebabkan', 'semoga', 'memiliki', 'keluarga', 'membantu', 'kesehatan', 'kerja', 'negara', 'langsung', 'meningkatkan', 'terima_kasih', 'malam']</t>
+  </si>
+  <si>
+    <t>['polisi', 'sekolah', 'ditemukan', 'terkait', 'kesehatan', 'kali', 'korban', 'petugas', 'jalan', 'kondisi', 'mengalami']</t>
+  </si>
+  <si>
+    <t>['darah', 'kesehatan', 'puskesmas', 'hiv', 'indonesia', 'kegiatan', 'pelayanan', 'petugas', 'layanan', 'kondisi']</t>
+  </si>
+  <si>
+    <t>['terkait', 'memiliki', 'kesehatan', 'indonesia', 'data', 'kelompok']</t>
+  </si>
+  <si>
+    <t>['polisi', 'virus', 'bandung', 'memiliki', 'kelompok', 'pelaku', 'tim']</t>
+  </si>
+  <si>
+    <t>['program', 'acara', 'terkait', 'jakarta', 'kesehatan', 'kali', 'korban', 'kegiatan', 'indonesia', 'bencana', 'jalan', 'cianjur']</t>
+  </si>
+  <si>
+    <t>['dokter', 'jakarta', 'kesehatan', 'hewan', 'kerja', 'kondisi', 'kebijakan', 'informasi']</t>
+  </si>
+  <si>
+    <t>['bantuan', 'mengaku', 'bali', 'kesehatan', 'kali', 'obat', 'sakit', 'jalan', 'penyakit']</t>
+  </si>
+  <si>
+    <t>['bantuan', 'polisi', 'ditemukan', 'kesehatan', 'korban', 'dunia', 'warga', 'tubuh', 'petugas', 'langsung', 'kondisi']</t>
+  </si>
+  <si>
+    <t>['dokter', 'mengaku', 'peserta', 'usia', 'daerah', 'kesehatan', 'pandemi', 'warga', 'jalan']</t>
+  </si>
+  <si>
+    <t>['program', 'menyebabkan', 'memiliki', 'jakarta', 'puskesmas', 'warga', 'sakit', 'petugas', 'penyakit', 'rumah_sakit', 'mengalami']</t>
+  </si>
+  <si>
+    <t>['dokter', 'jakarta', 'kesehatan', 'kali', 'korban', 'sakit', 'rumah_sakit']</t>
+  </si>
+  <si>
+    <t>['program', 'pandemi_covid', 'covid', 'jakarta', 'kesehatan', 'kali', 'bencana', 'kegiatan', 'indonesia', 'pandemi', 'kerja', 'persen', 'and', 'negara', 'membantu', 'kebijakan', 'pemerintah', 'rumah_sakit']</t>
+  </si>
+  <si>
+    <t>['ditemukan', 'penyakit', 'peserta', 'keluarga', 'usia', 'membantu', 'kesehatan', 'kali', 'manfaat', 'data', 'kelompok', 'kondisi', 'tim']</t>
+  </si>
+  <si>
+    <t>['menyebabkan', 'kesehatan', 'kulit', 'tubuh', 'sakit', 'meningkatkan', 'kondisi', 'mengalami']</t>
+  </si>
+  <si>
+    <t>['acara', 'pendidikan', 'memiliki', 'jakarta', 'daerah', 'kesehatan', 'manfaat', 'persen', 'negara', 'kondisi', 'pemerintah', 'mengalami']</t>
+  </si>
+  <si>
+    <t>['pasien', 'selamat', 'kesehatan', 'perempuan', 'doa', 'pemerintah', 'rumah_sakit']</t>
+  </si>
+  <si>
+    <t>['jakarta', 'daerah', 'kesehatan', 'kegiatan', 'indonesia', 'tim', 'terima_kasih', 'malam']</t>
+  </si>
+  <si>
+    <t>['bantuan', 'semoga', 'memiliki', 'keluarga', 'membantu', 'kesehatan', 'dunia', 'manfaat', 'tubuh', 'sakit', 'relawan', 'doa', 'langsung', 'meningkatkan', 'terima_kasih', 'kerja']</t>
+  </si>
+  <si>
+    <t>['virus', 'kesehatan', 'dunia', 'gejala', 'hiv', 'obat', 'tubuh', 'sakit', 'and', 'meningkatkan', 'kondisi']</t>
+  </si>
+  <si>
+    <t>['virus', 'vaksinasi', 'terkait', 'usia', 'bali', 'hewan', 'korban', 'kesehatan', 'vaksin', 'warga', 'rumah', 'langsung', 'mengalami']</t>
+  </si>
+  <si>
+    <t>['mengaku', 'air', 'ditemukan', 'kali', 'perempuan', 'korban', 'warga', 'rumah', 'langsung', 'kondisi', 'informasi']</t>
+  </si>
+  <si>
+    <t>['ditemukan', 'memiliki', 'kesehatan', 'manfaat', 'jenis']</t>
+  </si>
+  <si>
+    <t>['dokter', 'presiden_joko', 'jokowi', 'kesehatan', 'kondisi', 'rumah_sakit']</t>
+  </si>
+  <si>
+    <t>['virus', 'memiliki', 'dunia', 'gejala', 'tubuh', 'sakit', 'kerja', 'negara', 'penyakit', 'tim', 'mengalami']</t>
+  </si>
+  <si>
+    <t>['terkait', 'memiliki', 'keluarga', 'natal', 'kesehatan', 'indonesia', 'warga', 'pelayanan', 'petugas', 'rumah', 'negara', 'kondisi']</t>
+  </si>
+  <si>
+    <t>['air', 'semoga', 'memiliki', 'manfaat', 'indonesia', 'obat', 'tanaman', 'kondisi', 'mengalami', 'dokter', 'menyebabkan', 'usia', 'kulit', 'sakit', 'meningkatkan', 'jantung', 'and', 'makanan', 'pasien', 'darah', 'kesehatan', 'infeksi', 'negara', 'virus', 'tubuh', 'kerja', 'membantu', 'penyakit', 'jenis']</t>
+  </si>
+  <si>
+    <t>['pandemi_covid', 'keluarga', 'dunia', 'pandemi', 'kulit', 'infeksi', 'negara', 'covid', 'penyakit', 'and']</t>
+  </si>
+  <si>
+    <t>['dokter', 'air', 'virus', 'menyebabkan', 'ginjal', 'terkait', 'memiliki', 'kesehatan', 'infeksi', 'gejala', 'obat', 'tubuh', 'and', 'penyakit', 'jantung']</t>
+  </si>
+  <si>
+    <t>['terkait', 'kesehatan', 'natal', 'kegiatan', 'personel', 'warga', 'pelayanan', 'covid', 'malam', 'gereja']</t>
+  </si>
+  <si>
+    <t>['air', 'makanan', 'menyebabkan', 'memiliki', 'kesehatan', 'kali', 'manfaat', 'tubuh', 'persen', 'jantung', 'jenis']</t>
+  </si>
+  <si>
+    <t>['virus', 'menyebabkan', 'pandemi_covid', 'pasien', 'pemerintah', 'darah', 'kesehatan', 'pandemi', 'infeksi', 'obat', 'angka', 'sakit', 'persen', 'negara', 'covid', 'corona', 'akut', 'rumah_sakit']</t>
+  </si>
+  <si>
+    <t>['mengaku', 'memiliki', 'daerah', 'kesehatan', 'warga', 'pelayanan', 'kerja', 'layanan', 'jalan', 'kondisi', 'rumah_sakit']</t>
+  </si>
+  <si>
+    <t>['terkait', 'jakarta', 'kesehatan', 'indonesia', 'negara']</t>
+  </si>
+  <si>
+    <t>['menyebabkan', 'gejala', 'tanaman', 'meningkatkan', 'penyakit']</t>
+  </si>
+  <si>
+    <t>['program', 'virus', 'vaksinasi', 'ditemukan', 'pasien', 'terkait', 'kesehatan', 'pandemi', 'indonesia', 'data', 'covid', 'corona', 'pemerintah']</t>
+  </si>
+  <si>
+    <t>['program', 'air', 'bencana', 'perempuan', 'kondisi', 'mengalami', 'dokter', 'korban', 'meningkatkan', 'tim', 'gempa', 'bantuan', 'makanan', 'jakarta', 'kesehatan', 'negara', 'langsung', 'kelompok', 'malam', 'cianjur', 'bandung', 'acara', 'terkait', 'pengungsi', 'dunia', 'kegiatan', 'warga', 'kerja', 'membantu', 'informasi']</t>
+  </si>
+  <si>
+    <t>['bandung', 'vaksinasi', 'perjalanan', 'memiliki', 'usia', 'jakarta', 'daerah', 'natal', 'kesehatan', 'puskesmas', 'vaksin', 'layanan', 'mengalami']</t>
+  </si>
+  <si>
+    <t>['penyakit', 'memiliki', 'darah', 'daerah', 'kesehatan', 'manfaat', 'obat', 'tanaman', 'tubuh', 'langsung', 'kondisi', 'jenis']</t>
+  </si>
+  <si>
+    <t>['program', 'terkait', 'peserta', 'perjalanan', 'kesehatan', 'indonesia', 'pelayanan', 'petugas', 'layanan', 'meningkatkan', 'kebijakan', 'pemerintah', 'informasi']</t>
+  </si>
+  <si>
+    <t>['pasien', 'terkait', 'daerah', 'persen', 'rumah_sakit', 'covid', 'informasi']</t>
+  </si>
+  <si>
+    <t>['air', 'makanan', 'terkait', 'perjalanan', 'memiliki', 'bali', 'kesehatan', 'jalan', 'langsung', 'penyakit']</t>
+  </si>
+  <si>
+    <t>['menyebabkan', 'penyakit', 'darah', 'infeksi', 'gejala', 'kulit', 'tubuh', 'kondisi', 'jantung', 'mengalami']</t>
+  </si>
+  <si>
+    <t>['acara', 'jakarta', 'kesehatan', 'korban', 'bencana', 'kegiatan', 'indonesia', 'kerja', 'langsung', 'cianjur']</t>
+  </si>
+  <si>
+    <t>['acara', 'semoga', 'daerah', 'perempuan', 'sakit', 'petugas', 'informasi']</t>
+  </si>
+  <si>
+    <t>['menyebabkan', 'vaksinasi', 'semoga', 'pandemi_covid', 'bali', 'hewan', 'kesehatan', 'puskesmas', 'angka', 'vaksin', 'pandemi', 'tubuh', 'persen', 'petugas', 'rumah', 'covid', 'penyakit', 'kebijakan']</t>
+  </si>
+  <si>
+    <t>['jalan', 'jakarta', 'kesehatan', 'mengalami']</t>
+  </si>
+  <si>
+    <t>['bandung', 'acara', 'pandemi_covid', 'kesehatan', 'kali', 'pandemi', 'indonesia', 'and', 'covid', 'malam']</t>
+  </si>
+  <si>
+    <t>['program', 'jakarta', 'kesehatan', 'indonesia', 'warga', 'negara', 'langsung', 'kebijakan', 'pemerintah', 'informasi']</t>
+  </si>
+  <si>
+    <t>['kendaraan', 'perjalanan', 'kesehatan', 'personel', 'pelayanan', 'tubuh', 'petugas', 'jalan', 'kondisi', 'pemerintah', 'mengalami']</t>
+  </si>
+  <si>
+    <t>['kendaraan', 'air', 'perjalanan', 'memiliki', 'hewan', 'warga', 'tanaman', 'rumah', 'jalan', 'kondisi']</t>
+  </si>
+  <si>
+    <t>['corona', 'vaksinasi', 'pandemi_covid', 'terkait', 'memiliki', 'kesehatan', 'pandemi', 'infeksi', 'dunia', 'indonesia', 'warga', 'tubuh', 'persen', 'covid', 'kebijakan', 'pemerintah']</t>
+  </si>
+  <si>
+    <t>['vaksinasi', 'terkait', 'memiliki', 'jakarta', 'natal', 'kesehatan', 'kegiatan', 'personel', 'pelayanan', 'negara', 'covid', 'meningkatkan']</t>
+  </si>
+  <si>
+    <t>['bantuan', 'presiden_joko', 'perjalanan', 'jakarta', 'daerah', 'kesehatan', 'puskesmas', 'negara', 'jalan', 'kondisi', 'malam', 'mengalami']</t>
+  </si>
+  <si>
+    <t>['pasien', 'covid', 'kondisi', 'bencana']</t>
+  </si>
+  <si>
+    <t>['program', 'terkait', 'peserta', 'kesehatan', 'dunia', 'perempuan', 'manfaat', 'pelayanan', 'sakit', 'layanan', 'data', 'membantu']</t>
+  </si>
+  <si>
+    <t>['ditemukan', 'memiliki', 'kesehatan', 'dunia', 'tanaman', 'sakit', 'rumah', 'negara', 'malam', 'jenis']</t>
+  </si>
+  <si>
+    <t>['kesehatan', 'pelayanan', 'rumah', 'jalan', 'pemerintah']</t>
+  </si>
+  <si>
+    <t>['vaksinasi', 'ditemukan', 'informasi', 'pemerintah', 'kesehatan', 'dunia', 'vaksin', 'indonesia', 'langsung', 'tim', 'rumah_sakit']</t>
+  </si>
+  <si>
+    <t>['air', 'menyebabkan', 'ditemukan', 'infeksi', 'gejala', 'tubuh', 'persen', 'kondisi', 'mengalami']</t>
+  </si>
+  <si>
+    <t>['kerja', 'mengaku', 'jokowi', 'jakarta']</t>
+  </si>
+  <si>
+    <t>['bantuan', 'polisi', 'pasien', 'kesehatan', 'rumah_sakit', 'langsung', 'kondisi', 'malam', 'informasi']</t>
+  </si>
+  <si>
+    <t>['program', 'peserta', 'memiliki', 'rumah_sakit', 'data', 'meningkatkan', 'daerah', 'kesehatan', 'puskesmas', 'pelayanan', 'negara', 'langsung', 'pemerintah', 'terkait', 'kegiatan', 'warga', 'kerja', 'persen', 'rumah', 'terima_kasih', 'informasi']</t>
+  </si>
+  <si>
+    <t>['virus', 'vaksinasi', 'penyakit', 'perjalanan', 'usia', 'kesehatan', 'infeksi', 'obat', 'vaksin', 'negara', 'and', 'kondisi', 'jenis']</t>
+  </si>
+  <si>
+    <t>['posko', 'terkait', 'perjalanan', 'natal', 'kali', 'kesehatan', 'kegiatan', 'pelayanan', 'persen', 'data', 'membantu', 'informasi']</t>
+  </si>
+  <si>
+    <t>['data', 'makanan', 'menyebabkan', 'ditemukan', 'membantu', 'daerah', 'kali', 'kesehatan', 'manfaat', 'dunia', 'negara', 'kelompok', 'kebijakan', 'tim', 'informasi', 'mengalami']</t>
+  </si>
+  <si>
+    <t>['program', 'terkait', 'peserta', 'perjalanan', 'jakarta', 'kesehatan', 'indonesia', 'pelayanan', 'persen', 'layanan', 'petugas', 'meningkatkan', 'kebijakan', 'pemerintah', 'informasi']</t>
+  </si>
+  <si>
+    <t>['air', 'jantung', 'makanan', 'memiliki', 'darah', 'kesehatan', 'kali', 'manfaat', 'tubuh', 'membantu', 'meningkatkan', 'penyakit', 'tim', 'informasi']</t>
+  </si>
+  <si>
+    <t>['bali', 'hewan', 'korban', 'kesehatan', 'puskesmas', 'vaksin', 'warga', 'kondisi', 'pemerintah', 'rumah_sakit']</t>
+  </si>
+  <si>
+    <t>['dokter', 'korban', 'sakit', 'rumah_sakit', 'mengalami']</t>
+  </si>
+  <si>
+    <t>['mengaku', 'memiliki', 'perjalanan', 'natal', 'kali', 'kesehatan', 'membantu', 'gereja']</t>
+  </si>
+  <si>
+    <t>['gempa', 'bantuan', 'sekolah', 'keluarga', 'pengungsi', 'kesehatan', 'korban', 'perempuan', 'indonesia', 'warga', 'rumah', 'kelompok', 'tim', 'cianjur']</t>
+  </si>
+  <si>
+    <t>['kelompok', 'program', 'bandung', 'acara', 'semoga', 'daerah', 'kesehatan', 'angka', 'indonesia', 'kerja', 'persen', 'langsung', 'tim', 'informasi']</t>
+  </si>
+  <si>
+    <t>['darah', 'kesehatan', 'kali', 'angka', 'pelayanan', 'petugas', 'jalan', 'jantung', 'mengalami']</t>
+  </si>
+  <si>
+    <t>['akut', 'ginjal', 'terkait', 'pemerintah', 'jakarta', 'kesehatan', 'korban', 'obat', 'indonesia', 'penyakit', 'tim', 'mengalami']</t>
+  </si>
+  <si>
+    <t>['data', 'terkait', 'keluarga', 'jokowi', 'kesehatan', 'pandemi', 'vaksin', 'warga', 'negara', 'covid', 'pemerintah', 'rumah_sakit']</t>
+  </si>
+  <si>
+    <t>['program', 'kondisi', 'peserta', 'memiliki', 'kesehatan', 'daerah', 'kegiatan', 'indonesia', 'warga', 'sakit', 'data', 'langsung', 'meningkatkan', 'terima_kasih', 'pemerintah']</t>
+  </si>
+  <si>
+    <t>['dokter', 'acara', 'pendidikan', 'semoga', 'peserta', 'memiliki', 'kesehatan', 'kali', 'warga', 'negara', 'rumah_sakit']</t>
+  </si>
+  <si>
+    <t>['dokter', 'jakarta', 'kesehatan', 'kali', 'korban', 'sakit', 'petugas', 'tim', 'rumah_sakit']</t>
+  </si>
+  <si>
+    <t>['presiden_joko', 'perjalanan', 'jokowi', 'selamat', 'usia', 'kesehatan', 'kali', 'perempuan', 'indonesia', 'jalan']</t>
+  </si>
+  <si>
+    <t>['kesehatan', 'natal', 'kegiatan', 'personel', 'pelayanan', 'petugas', 'jalan', 'pemerintah']</t>
+  </si>
+  <si>
+    <t>['gempa', 'posko', 'semoga', 'kesehatan', 'bencana', 'warga', 'rumah', 'relawan', 'langsung', 'cianjur']</t>
+  </si>
+  <si>
+    <t>['virus', 'makanan', 'jakarta', 'infeksi', 'penyakit', 'mengalami']</t>
+  </si>
+  <si>
+    <t>['menyebabkan', 'gejala', 'tanaman', 'penyakit', 'mengalami', 'jenis']</t>
+  </si>
+  <si>
+    <t>['program', 'mengaku', 'pendidikan', 'kali', 'indonesia', 'layanan', 'kondisi', 'rumah_sakit', 'mengalami', 'sekolah', 'menyebabkan', 'pandemi', 'sakit', 'meningkatkan', 'pasien', 'keluarga', 'jakarta', 'bali', 'kesehatan', 'pelayanan', 'langsung', 'malam', 'pemerintah', 'kegiatan', 'persen', 'membantu']</t>
+  </si>
+  <si>
+    <t>['kendaraan', 'air', 'makanan', 'memiliki', 'darah', 'kesehatan', 'jalan', 'kulit', 'warga', 'tubuh', 'langsung', 'penyakit']</t>
+  </si>
+  <si>
+    <t>['dokter', 'jenis', 'pasien', 'tubuh', 'sakit', 'kondisi', 'rumah_sakit', 'mengalami']</t>
+  </si>
+  <si>
+    <t>['bantuan', 'mengaku', 'polisi', 'memiliki', 'keluarga', 'jakarta', 'kesehatan', 'warga', 'sakit', 'jalan']</t>
+  </si>
+  <si>
+    <t>['semoga', 'usia', 'selamat', 'dunia', 'sakit', 'doa', 'gereja']</t>
+  </si>
+  <si>
+    <t>['program', 'kendaraan', 'air', 'pendidikan', 'terkait', 'memiliki', 'keluarga', 'kesehatan', 'perempuan', 'rumah', 'negara', 'meningkatkan', 'kondisi']</t>
+  </si>
+  <si>
+    <t>['acara', 'jenis', 'pasien', 'terkait', 'jakarta', 'darah', 'dunia', 'infeksi', 'kulit', 'tubuh', 'penyakit', 'jantung', 'rumah_sakit', 'mengalami']</t>
+  </si>
+  <si>
+    <t>['program', 'dokter', 'makanan', 'pendidikan', 'terkait', 'memiliki', 'daerah', 'kesehatan', 'obat', 'rumah_sakit', 'langsung', 'pemerintah', 'informasi']</t>
+  </si>
+  <si>
+    <t>['makanan', 'menyebabkan', 'ditemukan', 'penyakit', 'memiliki', 'darah', 'kesehatan', 'manfaat', 'tubuh', 'membantu', 'kondisi', 'jantung', 'jenis']</t>
+  </si>
+  <si>
+    <t>['virus', 'pasien', 'daerah', 'kesehatan', 'dunia', 'vaksin', 'indonesia', 'jalan']</t>
+  </si>
+  <si>
+    <t>['menyebabkan', 'memiliki', 'membantu', 'kesehatan', 'kali', 'kulit', 'manfaat', 'dunia', 'sakit', 'rumah', 'langsung', 'jenis']</t>
+  </si>
+  <si>
+    <t>['pemerintah', 'jakarta', 'natal', 'kesehatan', 'indonesia', 'warga', 'persen', 'doa', 'negara', 'covid', 'malam', 'gereja']</t>
+  </si>
+  <si>
+    <t>['polisi', 'ditemukan', 'penyakit', 'keluarga', 'kesehatan', 'korban', 'gejala', 'warga', 'tubuh', 'sakit', 'petugas', 'rumah', 'membantu', 'kondisi', 'jantung', 'informasi']</t>
+  </si>
+  <si>
+    <t>['mengaku', 'memiliki', 'kesehatan', 'manfaat', 'langsung']</t>
+  </si>
+  <si>
+    <t>['menyebabkan', 'jenis', 'usia', 'jakarta', 'kegiatan', 'tubuh', 'kondisi', 'tim', 'mengalami']</t>
+  </si>
+  <si>
+    <t>['ditemukan', 'pasien', 'perjalanan', 'jakarta', 'kesehatan', 'kali', 'gejala', 'vaksin', 'warga', 'sakit', 'persen', 'covid', 'pelaku']</t>
+  </si>
+  <si>
+    <t>['presiden_joko', 'perjalanan', 'jokowi', 'natal', 'kali', 'indonesia', 'warga', 'persen', 'data', 'covid', 'kebijakan']</t>
+  </si>
+  <si>
+    <t>['mengaku', 'indonesia', 'kerja', 'rumah', 'jalan', 'malam']</t>
+  </si>
+  <si>
+    <t>['dokter', 'air', 'makanan', 'ginjal', 'pasien', 'jenis', 'membantu', 'kesehatan', 'kali', 'gejala', 'obat', 'sakit', 'langsung', 'penyakit', 'akut', 'mengalami']</t>
+  </si>
+  <si>
+    <t>['air', 'peserta', 'memiliki', 'kali', 'kondisi', 'mengalami', 'dokter', 'usia', 'meningkatkan', 'jantung', 'keluarga', 'darah', 'kesehatan', 'terkait', 'dunia', 'tubuh', 'persen', 'and', 'penyakit', 'jenis']</t>
+  </si>
+  <si>
+    <t>['program', 'air', 'pandemi_covid', 'kesehatan', 'pandemi', 'rumah', 'covid', 'penyakit', 'pemerintah']</t>
+  </si>
+  <si>
+    <t>['memiliki', 'obat', 'angka', 'kondisi', 'mengalami', 'menyebabkan', 'pandemi', 'gejala', 'meningkatkan', 'vaksinasi', 'pandemi_covid', 'daerah', 'kesehatan', 'vaksin', 'negara', 'langsung', 'kelompok', 'virus', 'ditemukan', 'terkait', 'dunia', 'tubuh', 'covid', 'penyakit', 'informasi']</t>
+  </si>
+  <si>
+    <t>['program', 'pendidikan', 'indonesia', 'rumah_sakit', 'dokter', 'menyebabkan', 'pandemi', 'sakit', 'meningkatkan', 'jantung', 'pandemi_covid', 'kesehatan', 'puskesmas', 'pelayanan', 'langsung', 'pemerintah', 'presiden_joko', 'terkait', 'covid', 'penyakit']</t>
+  </si>
+  <si>
+    <t>['bantuan', 'mengaku', 'bandung', 'acara', 'peserta', 'jakarta', 'kesehatan', 'kali', 'indonesia', 'membantu']</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -11794,6 +11791,14 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -11831,11 +11836,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -12140,8 +12146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="B138" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E143" sqref="E143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12186,7 +12192,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -12212,7 +12218,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -12238,7 +12244,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -12264,7 +12270,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -12290,7 +12296,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -12316,7 +12322,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -12342,7 +12348,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -12368,7 +12374,7 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -12394,7 +12400,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -12420,7 +12426,7 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -12446,7 +12452,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -12472,1763 +12478,1763 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
+        <v>446</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13" t="s">
         <v>43</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" t="s">
         <v>45</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>447</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
         <v>46</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14" t="s">
-        <v>450</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" t="s">
         <v>48</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>448</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15" t="s">
         <v>49</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15" t="s">
-        <v>451</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" t="s">
         <v>51</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>449</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16" t="s">
         <v>52</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16" t="s">
-        <v>452</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" t="s">
         <v>54</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>450</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17" t="s">
         <v>55</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17" t="s">
-        <v>453</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" t="s">
         <v>57</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>451</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18" t="s">
-        <v>454</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" t="s">
         <v>60</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>452</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19" t="s">
         <v>61</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19" t="s">
-        <v>455</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" t="s">
         <v>63</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>453</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20" t="s">
         <v>64</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20" t="s">
-        <v>456</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" t="s">
         <v>66</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>454</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21" t="s">
         <v>67</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21" t="s">
-        <v>457</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" t="s">
         <v>69</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>455</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22" t="s">
         <v>70</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22" t="s">
-        <v>458</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" t="s">
         <v>72</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>456</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23" t="s">
         <v>73</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23" t="s">
-        <v>459</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" t="s">
         <v>75</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>457</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24" t="s">
         <v>76</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24" t="s">
-        <v>460</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" t="s">
         <v>78</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>458</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25" t="s">
         <v>79</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25" t="s">
-        <v>461</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26" t="s">
         <v>81</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>459</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26" t="s">
         <v>82</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26" t="s">
-        <v>462</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27" t="s">
         <v>84</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27" t="s">
+        <v>460</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27" t="s">
         <v>85</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27" t="s">
-        <v>463</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>86</v>
+      </c>
+      <c r="B28" t="s">
         <v>87</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28" t="s">
+        <v>461</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28" t="s">
         <v>88</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28" t="s">
-        <v>464</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>89</v>
+      </c>
+      <c r="B29" t="s">
         <v>90</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29" t="s">
+        <v>462</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29" t="s">
         <v>91</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29" t="s">
-        <v>465</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>92</v>
+      </c>
+      <c r="B30" t="s">
         <v>93</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>463</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30" t="s">
         <v>94</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30" t="s">
-        <v>466</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>95</v>
+      </c>
+      <c r="B31" t="s">
         <v>96</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31" t="s">
+        <v>464</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31" t="s">
         <v>97</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31" t="s">
-        <v>467</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>98</v>
+      </c>
+      <c r="B32" t="s">
         <v>99</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32" t="s">
+        <v>465</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32" t="s">
         <v>100</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32" t="s">
-        <v>468</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>101</v>
+      </c>
+      <c r="B33" t="s">
         <v>102</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33" t="s">
+        <v>466</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33" t="s">
         <v>103</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33" t="s">
-        <v>469</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
+        <v>104</v>
+      </c>
+      <c r="B34" t="s">
         <v>105</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34" t="s">
+        <v>467</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34" t="s">
         <v>106</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34" t="s">
-        <v>470</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
+        <v>107</v>
+      </c>
+      <c r="B35" t="s">
         <v>108</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35" t="s">
+        <v>468</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35" t="s">
         <v>109</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35" t="s">
-        <v>471</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
+        <v>110</v>
+      </c>
+      <c r="B36" t="s">
         <v>111</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36" t="s">
+        <v>469</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36" t="s">
         <v>112</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36" t="s">
-        <v>472</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="H36" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
+        <v>113</v>
+      </c>
+      <c r="B37" t="s">
         <v>114</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37" t="s">
+        <v>470</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37" t="s">
         <v>115</v>
-      </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37" t="s">
-        <v>473</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="H37" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
+        <v>116</v>
+      </c>
+      <c r="B38" t="s">
         <v>117</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>471</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38" t="s">
         <v>118</v>
-      </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="E38" t="s">
-        <v>474</v>
-      </c>
-      <c r="F38">
-        <v>1</v>
-      </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-      <c r="H38" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
+        <v>119</v>
+      </c>
+      <c r="B39" t="s">
         <v>120</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39" t="s">
+        <v>472</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39" t="s">
         <v>121</v>
-      </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="E39" t="s">
-        <v>122</v>
-      </c>
-      <c r="F39">
-        <v>1</v>
-      </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
-      <c r="H39" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
+        <v>122</v>
+      </c>
+      <c r="B40" t="s">
+        <v>123</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40" t="s">
+        <v>473</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40" t="s">
         <v>124</v>
-      </c>
-      <c r="B40" t="s">
-        <v>125</v>
-      </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40" t="s">
-        <v>475</v>
-      </c>
-      <c r="F40">
-        <v>1</v>
-      </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-      <c r="H40" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
+        <v>125</v>
+      </c>
+      <c r="B41" t="s">
+        <v>126</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41" t="s">
+        <v>474</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41" t="s">
         <v>127</v>
-      </c>
-      <c r="B41" t="s">
-        <v>128</v>
-      </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="E41" t="s">
-        <v>476</v>
-      </c>
-      <c r="F41">
-        <v>1</v>
-      </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
-      <c r="H41" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
+        <v>128</v>
+      </c>
+      <c r="B42" t="s">
+        <v>129</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42" t="s">
+        <v>475</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42" t="s">
         <v>130</v>
-      </c>
-      <c r="B42" t="s">
-        <v>131</v>
-      </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="E42" t="s">
-        <v>477</v>
-      </c>
-      <c r="F42">
-        <v>1</v>
-      </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-      <c r="H42" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
+        <v>131</v>
+      </c>
+      <c r="B43" t="s">
+        <v>132</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43" t="s">
+        <v>476</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43" t="s">
         <v>133</v>
-      </c>
-      <c r="B43" t="s">
-        <v>134</v>
-      </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-      <c r="E43" t="s">
-        <v>478</v>
-      </c>
-      <c r="F43">
-        <v>1</v>
-      </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
-      <c r="H43" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
+        <v>134</v>
+      </c>
+      <c r="B44" t="s">
+        <v>135</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44" t="s">
+        <v>477</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44" t="s">
         <v>136</v>
-      </c>
-      <c r="B44" t="s">
-        <v>137</v>
-      </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-      <c r="E44" t="s">
-        <v>479</v>
-      </c>
-      <c r="F44">
-        <v>1</v>
-      </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-      <c r="H44" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
+        <v>137</v>
+      </c>
+      <c r="B45" t="s">
+        <v>138</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45" t="s">
+        <v>478</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45" t="s">
         <v>139</v>
-      </c>
-      <c r="B45" t="s">
-        <v>140</v>
-      </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
-      <c r="E45" t="s">
-        <v>480</v>
-      </c>
-      <c r="F45">
-        <v>1</v>
-      </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
-      <c r="H45" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
+        <v>140</v>
+      </c>
+      <c r="B46" t="s">
+        <v>141</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46" t="s">
+        <v>479</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46" t="s">
         <v>142</v>
-      </c>
-      <c r="B46" t="s">
-        <v>143</v>
-      </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-      <c r="D46">
-        <v>0</v>
-      </c>
-      <c r="E46" t="s">
-        <v>481</v>
-      </c>
-      <c r="F46">
-        <v>1</v>
-      </c>
-      <c r="G46">
-        <v>0</v>
-      </c>
-      <c r="H46" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
+        <v>143</v>
+      </c>
+      <c r="B47" t="s">
+        <v>144</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47" t="s">
+        <v>480</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47" t="s">
         <v>145</v>
-      </c>
-      <c r="B47" t="s">
-        <v>146</v>
-      </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-      <c r="E47" t="s">
-        <v>482</v>
-      </c>
-      <c r="F47">
-        <v>1</v>
-      </c>
-      <c r="G47">
-        <v>0</v>
-      </c>
-      <c r="H47" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
+        <v>146</v>
+      </c>
+      <c r="B48" t="s">
+        <v>147</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48" t="s">
+        <v>481</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48" t="s">
         <v>148</v>
-      </c>
-      <c r="B48" t="s">
-        <v>149</v>
-      </c>
-      <c r="C48">
-        <v>1</v>
-      </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="E48" t="s">
-        <v>483</v>
-      </c>
-      <c r="F48">
-        <v>1</v>
-      </c>
-      <c r="G48">
-        <v>0</v>
-      </c>
-      <c r="H48" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
+        <v>149</v>
+      </c>
+      <c r="B49" t="s">
+        <v>150</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49" t="s">
+        <v>482</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49" t="s">
         <v>151</v>
-      </c>
-      <c r="B49" t="s">
-        <v>152</v>
-      </c>
-      <c r="C49">
-        <v>1</v>
-      </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
-      <c r="E49" t="s">
-        <v>484</v>
-      </c>
-      <c r="F49">
-        <v>1</v>
-      </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
-      <c r="H49" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
+        <v>152</v>
+      </c>
+      <c r="B50" t="s">
+        <v>153</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50" t="s">
+        <v>483</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50" t="s">
         <v>154</v>
-      </c>
-      <c r="B50" t="s">
-        <v>155</v>
-      </c>
-      <c r="C50">
-        <v>1</v>
-      </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
-      <c r="E50" t="s">
-        <v>485</v>
-      </c>
-      <c r="F50">
-        <v>1</v>
-      </c>
-      <c r="G50">
-        <v>0</v>
-      </c>
-      <c r="H50" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
+        <v>155</v>
+      </c>
+      <c r="B51" t="s">
+        <v>156</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51" t="s">
+        <v>484</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51" t="s">
         <v>157</v>
-      </c>
-      <c r="B51" t="s">
-        <v>158</v>
-      </c>
-      <c r="C51">
-        <v>1</v>
-      </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-      <c r="E51" t="s">
-        <v>486</v>
-      </c>
-      <c r="F51">
-        <v>1</v>
-      </c>
-      <c r="G51">
-        <v>0</v>
-      </c>
-      <c r="H51" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
+        <v>158</v>
+      </c>
+      <c r="B52" t="s">
+        <v>159</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52" t="s">
+        <v>485</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52" t="s">
         <v>160</v>
-      </c>
-      <c r="B52" t="s">
-        <v>161</v>
-      </c>
-      <c r="C52">
-        <v>0</v>
-      </c>
-      <c r="D52">
-        <v>1</v>
-      </c>
-      <c r="E52" t="s">
-        <v>487</v>
-      </c>
-      <c r="F52">
-        <v>1</v>
-      </c>
-      <c r="G52">
-        <v>0</v>
-      </c>
-      <c r="H52" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
+        <v>161</v>
+      </c>
+      <c r="B53" t="s">
+        <v>162</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53" t="s">
+        <v>486</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53" t="s">
         <v>163</v>
-      </c>
-      <c r="B53" t="s">
-        <v>164</v>
-      </c>
-      <c r="C53">
-        <v>1</v>
-      </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-      <c r="E53" t="s">
-        <v>488</v>
-      </c>
-      <c r="F53">
-        <v>1</v>
-      </c>
-      <c r="G53">
-        <v>0</v>
-      </c>
-      <c r="H53" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
+        <v>164</v>
+      </c>
+      <c r="B54" t="s">
+        <v>165</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54" t="s">
+        <v>487</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54" t="s">
         <v>166</v>
-      </c>
-      <c r="B54" t="s">
-        <v>167</v>
-      </c>
-      <c r="C54">
-        <v>1</v>
-      </c>
-      <c r="D54">
-        <v>0</v>
-      </c>
-      <c r="E54" t="s">
-        <v>489</v>
-      </c>
-      <c r="F54">
-        <v>1</v>
-      </c>
-      <c r="G54">
-        <v>0</v>
-      </c>
-      <c r="H54" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
+        <v>167</v>
+      </c>
+      <c r="B55" t="s">
+        <v>168</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55" t="s">
+        <v>488</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55" t="s">
         <v>169</v>
-      </c>
-      <c r="B55" t="s">
-        <v>170</v>
-      </c>
-      <c r="C55">
-        <v>1</v>
-      </c>
-      <c r="D55">
-        <v>0</v>
-      </c>
-      <c r="E55" t="s">
-        <v>490</v>
-      </c>
-      <c r="F55">
-        <v>1</v>
-      </c>
-      <c r="G55">
-        <v>0</v>
-      </c>
-      <c r="H55" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
+        <v>170</v>
+      </c>
+      <c r="B56" t="s">
+        <v>171</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56" t="s">
+        <v>489</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56" t="s">
         <v>172</v>
-      </c>
-      <c r="B56" t="s">
-        <v>173</v>
-      </c>
-      <c r="C56">
-        <v>1</v>
-      </c>
-      <c r="D56">
-        <v>0</v>
-      </c>
-      <c r="E56" t="s">
-        <v>491</v>
-      </c>
-      <c r="F56">
-        <v>1</v>
-      </c>
-      <c r="G56">
-        <v>0</v>
-      </c>
-      <c r="H56" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
+        <v>173</v>
+      </c>
+      <c r="B57" t="s">
+        <v>174</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57" t="s">
+        <v>490</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57" t="s">
         <v>175</v>
-      </c>
-      <c r="B57" t="s">
-        <v>176</v>
-      </c>
-      <c r="C57">
-        <v>1</v>
-      </c>
-      <c r="D57">
-        <v>0</v>
-      </c>
-      <c r="E57" t="s">
-        <v>492</v>
-      </c>
-      <c r="F57">
-        <v>1</v>
-      </c>
-      <c r="G57">
-        <v>0</v>
-      </c>
-      <c r="H57" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
+        <v>176</v>
+      </c>
+      <c r="B58" t="s">
+        <v>177</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58" t="s">
+        <v>491</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58" t="s">
         <v>178</v>
-      </c>
-      <c r="B58" t="s">
-        <v>179</v>
-      </c>
-      <c r="C58">
-        <v>1</v>
-      </c>
-      <c r="D58">
-        <v>0</v>
-      </c>
-      <c r="E58" t="s">
-        <v>493</v>
-      </c>
-      <c r="F58">
-        <v>1</v>
-      </c>
-      <c r="G58">
-        <v>0</v>
-      </c>
-      <c r="H58" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
+        <v>179</v>
+      </c>
+      <c r="B59" t="s">
+        <v>180</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59" t="s">
+        <v>492</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59" t="s">
         <v>181</v>
-      </c>
-      <c r="B59" t="s">
-        <v>182</v>
-      </c>
-      <c r="C59">
-        <v>1</v>
-      </c>
-      <c r="D59">
-        <v>0</v>
-      </c>
-      <c r="E59" t="s">
-        <v>494</v>
-      </c>
-      <c r="F59">
-        <v>1</v>
-      </c>
-      <c r="G59">
-        <v>0</v>
-      </c>
-      <c r="H59" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
+        <v>182</v>
+      </c>
+      <c r="B60" t="s">
+        <v>183</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60" t="s">
+        <v>493</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60" t="s">
         <v>184</v>
-      </c>
-      <c r="B60" t="s">
-        <v>185</v>
-      </c>
-      <c r="C60">
-        <v>1</v>
-      </c>
-      <c r="D60">
-        <v>0</v>
-      </c>
-      <c r="E60" t="s">
-        <v>495</v>
-      </c>
-      <c r="F60">
-        <v>1</v>
-      </c>
-      <c r="G60">
-        <v>0</v>
-      </c>
-      <c r="H60" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
+        <v>185</v>
+      </c>
+      <c r="B61" t="s">
+        <v>186</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61" t="s">
+        <v>494</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61" t="s">
         <v>187</v>
-      </c>
-      <c r="B61" t="s">
-        <v>188</v>
-      </c>
-      <c r="C61">
-        <v>1</v>
-      </c>
-      <c r="D61">
-        <v>0</v>
-      </c>
-      <c r="E61" t="s">
-        <v>496</v>
-      </c>
-      <c r="F61">
-        <v>1</v>
-      </c>
-      <c r="G61">
-        <v>0</v>
-      </c>
-      <c r="H61" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
+        <v>188</v>
+      </c>
+      <c r="B62" t="s">
+        <v>189</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62" t="s">
+        <v>495</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62" t="s">
         <v>190</v>
-      </c>
-      <c r="B62" t="s">
-        <v>191</v>
-      </c>
-      <c r="C62">
-        <v>1</v>
-      </c>
-      <c r="D62">
-        <v>0</v>
-      </c>
-      <c r="E62" t="s">
-        <v>497</v>
-      </c>
-      <c r="F62">
-        <v>1</v>
-      </c>
-      <c r="G62">
-        <v>0</v>
-      </c>
-      <c r="H62" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
+        <v>191</v>
+      </c>
+      <c r="B63" t="s">
+        <v>192</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63" t="s">
+        <v>496</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63" t="s">
         <v>193</v>
-      </c>
-      <c r="B63" t="s">
-        <v>194</v>
-      </c>
-      <c r="C63">
-        <v>1</v>
-      </c>
-      <c r="D63">
-        <v>0</v>
-      </c>
-      <c r="E63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F63">
-        <v>1</v>
-      </c>
-      <c r="G63">
-        <v>0</v>
-      </c>
-      <c r="H63" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
+        <v>194</v>
+      </c>
+      <c r="B64" t="s">
+        <v>195</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64" t="s">
+        <v>497</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64" t="s">
         <v>196</v>
-      </c>
-      <c r="B64" t="s">
-        <v>197</v>
-      </c>
-      <c r="C64">
-        <v>1</v>
-      </c>
-      <c r="D64">
-        <v>0</v>
-      </c>
-      <c r="E64" t="s">
-        <v>499</v>
-      </c>
-      <c r="F64">
-        <v>1</v>
-      </c>
-      <c r="G64">
-        <v>0</v>
-      </c>
-      <c r="H64" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
+        <v>197</v>
+      </c>
+      <c r="B65" t="s">
+        <v>198</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65" t="s">
+        <v>498</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65" t="s">
         <v>199</v>
-      </c>
-      <c r="B65" t="s">
-        <v>200</v>
-      </c>
-      <c r="C65">
-        <v>1</v>
-      </c>
-      <c r="D65">
-        <v>0</v>
-      </c>
-      <c r="E65" t="s">
-        <v>500</v>
-      </c>
-      <c r="F65">
-        <v>1</v>
-      </c>
-      <c r="G65">
-        <v>0</v>
-      </c>
-      <c r="H65" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
+        <v>200</v>
+      </c>
+      <c r="B66" t="s">
+        <v>201</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66" t="s">
+        <v>499</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66" t="s">
         <v>202</v>
-      </c>
-      <c r="B66" t="s">
-        <v>203</v>
-      </c>
-      <c r="C66">
-        <v>1</v>
-      </c>
-      <c r="D66">
-        <v>0</v>
-      </c>
-      <c r="E66" t="s">
-        <v>501</v>
-      </c>
-      <c r="F66">
-        <v>1</v>
-      </c>
-      <c r="G66">
-        <v>0</v>
-      </c>
-      <c r="H66" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
+        <v>203</v>
+      </c>
+      <c r="B67" t="s">
+        <v>204</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67" t="s">
+        <v>500</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67" t="s">
         <v>205</v>
-      </c>
-      <c r="B67" t="s">
-        <v>206</v>
-      </c>
-      <c r="C67">
-        <v>1</v>
-      </c>
-      <c r="D67">
-        <v>0</v>
-      </c>
-      <c r="E67" t="s">
-        <v>502</v>
-      </c>
-      <c r="F67">
-        <v>1</v>
-      </c>
-      <c r="G67">
-        <v>0</v>
-      </c>
-      <c r="H67" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
+        <v>206</v>
+      </c>
+      <c r="B68" t="s">
+        <v>207</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68" t="s">
+        <v>501</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68" t="s">
         <v>208</v>
-      </c>
-      <c r="B68" t="s">
-        <v>209</v>
-      </c>
-      <c r="C68">
-        <v>1</v>
-      </c>
-      <c r="D68">
-        <v>0</v>
-      </c>
-      <c r="E68" t="s">
-        <v>503</v>
-      </c>
-      <c r="F68">
-        <v>1</v>
-      </c>
-      <c r="G68">
-        <v>0</v>
-      </c>
-      <c r="H68" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
+        <v>209</v>
+      </c>
+      <c r="B69" t="s">
+        <v>210</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69" t="s">
+        <v>502</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69" t="s">
         <v>211</v>
-      </c>
-      <c r="B69" t="s">
-        <v>212</v>
-      </c>
-      <c r="C69">
-        <v>1</v>
-      </c>
-      <c r="D69">
-        <v>0</v>
-      </c>
-      <c r="E69" t="s">
-        <v>504</v>
-      </c>
-      <c r="F69">
-        <v>1</v>
-      </c>
-      <c r="G69">
-        <v>0</v>
-      </c>
-      <c r="H69" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
+        <v>212</v>
+      </c>
+      <c r="B70" t="s">
+        <v>213</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70" t="s">
+        <v>503</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70" t="s">
         <v>214</v>
-      </c>
-      <c r="B70" t="s">
-        <v>215</v>
-      </c>
-      <c r="C70">
-        <v>1</v>
-      </c>
-      <c r="D70">
-        <v>0</v>
-      </c>
-      <c r="E70" t="s">
-        <v>505</v>
-      </c>
-      <c r="F70">
-        <v>1</v>
-      </c>
-      <c r="G70">
-        <v>0</v>
-      </c>
-      <c r="H70" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
+        <v>215</v>
+      </c>
+      <c r="B71" t="s">
+        <v>216</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71" t="s">
+        <v>504</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71" t="s">
         <v>217</v>
-      </c>
-      <c r="B71" t="s">
-        <v>218</v>
-      </c>
-      <c r="C71">
-        <v>1</v>
-      </c>
-      <c r="D71">
-        <v>0</v>
-      </c>
-      <c r="E71" t="s">
-        <v>506</v>
-      </c>
-      <c r="F71">
-        <v>1</v>
-      </c>
-      <c r="G71">
-        <v>0</v>
-      </c>
-      <c r="H71" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
+        <v>218</v>
+      </c>
+      <c r="B72" t="s">
+        <v>219</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72" t="s">
+        <v>505</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72" t="s">
         <v>220</v>
-      </c>
-      <c r="B72" t="s">
-        <v>221</v>
-      </c>
-      <c r="C72">
-        <v>1</v>
-      </c>
-      <c r="D72">
-        <v>0</v>
-      </c>
-      <c r="E72" t="s">
-        <v>507</v>
-      </c>
-      <c r="F72">
-        <v>1</v>
-      </c>
-      <c r="G72">
-        <v>0</v>
-      </c>
-      <c r="H72" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
+        <v>221</v>
+      </c>
+      <c r="B73" t="s">
+        <v>222</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73" t="s">
+        <v>506</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73" t="s">
         <v>223</v>
-      </c>
-      <c r="B73" t="s">
-        <v>224</v>
-      </c>
-      <c r="C73">
-        <v>1</v>
-      </c>
-      <c r="D73">
-        <v>0</v>
-      </c>
-      <c r="E73" t="s">
-        <v>508</v>
-      </c>
-      <c r="F73">
-        <v>1</v>
-      </c>
-      <c r="G73">
-        <v>0</v>
-      </c>
-      <c r="H73" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
+        <v>224</v>
+      </c>
+      <c r="B74" t="s">
+        <v>225</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74" t="s">
+        <v>507</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74" t="s">
         <v>226</v>
-      </c>
-      <c r="B74" t="s">
-        <v>227</v>
-      </c>
-      <c r="C74">
-        <v>1</v>
-      </c>
-      <c r="D74">
-        <v>0</v>
-      </c>
-      <c r="E74" t="s">
-        <v>509</v>
-      </c>
-      <c r="F74">
-        <v>1</v>
-      </c>
-      <c r="G74">
-        <v>0</v>
-      </c>
-      <c r="H74" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
+        <v>227</v>
+      </c>
+      <c r="B75" t="s">
+        <v>228</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75" t="s">
+        <v>508</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75" t="s">
         <v>229</v>
-      </c>
-      <c r="B75" t="s">
-        <v>230</v>
-      </c>
-      <c r="C75">
-        <v>1</v>
-      </c>
-      <c r="D75">
-        <v>0</v>
-      </c>
-      <c r="E75" t="s">
-        <v>510</v>
-      </c>
-      <c r="F75">
-        <v>1</v>
-      </c>
-      <c r="G75">
-        <v>0</v>
-      </c>
-      <c r="H75" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
+        <v>230</v>
+      </c>
+      <c r="B76" t="s">
+        <v>231</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76" t="s">
+        <v>509</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76" t="s">
         <v>232</v>
-      </c>
-      <c r="B76" t="s">
-        <v>233</v>
-      </c>
-      <c r="C76">
-        <v>1</v>
-      </c>
-      <c r="D76">
-        <v>0</v>
-      </c>
-      <c r="E76" t="s">
-        <v>511</v>
-      </c>
-      <c r="F76">
-        <v>1</v>
-      </c>
-      <c r="G76">
-        <v>0</v>
-      </c>
-      <c r="H76" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
+        <v>233</v>
+      </c>
+      <c r="B77" t="s">
+        <v>234</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77" t="s">
+        <v>510</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77" t="s">
         <v>235</v>
-      </c>
-      <c r="B77" t="s">
-        <v>236</v>
-      </c>
-      <c r="C77">
-        <v>1</v>
-      </c>
-      <c r="D77">
-        <v>0</v>
-      </c>
-      <c r="E77" t="s">
-        <v>512</v>
-      </c>
-      <c r="F77">
-        <v>1</v>
-      </c>
-      <c r="G77">
-        <v>0</v>
-      </c>
-      <c r="H77" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
+        <v>236</v>
+      </c>
+      <c r="B78" t="s">
+        <v>237</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78" t="s">
+        <v>511</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78" t="s">
         <v>238</v>
-      </c>
-      <c r="B78" t="s">
-        <v>239</v>
-      </c>
-      <c r="C78">
-        <v>1</v>
-      </c>
-      <c r="D78">
-        <v>0</v>
-      </c>
-      <c r="E78" t="s">
-        <v>513</v>
-      </c>
-      <c r="F78">
-        <v>1</v>
-      </c>
-      <c r="G78">
-        <v>0</v>
-      </c>
-      <c r="H78" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
+        <v>239</v>
+      </c>
+      <c r="B79" t="s">
+        <v>240</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79" t="s">
+        <v>512</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79" t="s">
         <v>241</v>
-      </c>
-      <c r="B79" t="s">
-        <v>242</v>
-      </c>
-      <c r="C79">
-        <v>1</v>
-      </c>
-      <c r="D79">
-        <v>0</v>
-      </c>
-      <c r="E79" t="s">
-        <v>514</v>
-      </c>
-      <c r="F79">
-        <v>1</v>
-      </c>
-      <c r="G79">
-        <v>0</v>
-      </c>
-      <c r="H79" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
+        <v>242</v>
+      </c>
+      <c r="B80" t="s">
+        <v>243</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80" t="s">
+        <v>513</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80" t="s">
         <v>244</v>
-      </c>
-      <c r="B80" t="s">
-        <v>245</v>
-      </c>
-      <c r="C80">
-        <v>1</v>
-      </c>
-      <c r="D80">
-        <v>0</v>
-      </c>
-      <c r="E80" t="s">
-        <v>515</v>
-      </c>
-      <c r="F80">
-        <v>1</v>
-      </c>
-      <c r="G80">
-        <v>0</v>
-      </c>
-      <c r="H80" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B81" t="s">
         <v>42</v>
@@ -14240,7 +14246,7 @@
         <v>0</v>
       </c>
       <c r="E81" t="s">
-        <v>43</v>
+        <v>446</v>
       </c>
       <c r="F81">
         <v>1</v>
@@ -14249,119 +14255,119 @@
         <v>0</v>
       </c>
       <c r="H81" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
+        <v>247</v>
+      </c>
+      <c r="B82" t="s">
+        <v>248</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82" t="s">
+        <v>514</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82" t="s">
         <v>249</v>
-      </c>
-      <c r="B82" t="s">
-        <v>250</v>
-      </c>
-      <c r="C82">
-        <v>1</v>
-      </c>
-      <c r="D82">
-        <v>0</v>
-      </c>
-      <c r="E82" t="s">
-        <v>516</v>
-      </c>
-      <c r="F82">
-        <v>1</v>
-      </c>
-      <c r="G82">
-        <v>0</v>
-      </c>
-      <c r="H82" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
+        <v>250</v>
+      </c>
+      <c r="B83" t="s">
+        <v>251</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83" t="s">
+        <v>515</v>
+      </c>
+      <c r="F83">
+        <v>1</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83" t="s">
         <v>252</v>
-      </c>
-      <c r="B83" t="s">
-        <v>253</v>
-      </c>
-      <c r="C83">
-        <v>1</v>
-      </c>
-      <c r="D83">
-        <v>0</v>
-      </c>
-      <c r="E83" t="s">
-        <v>517</v>
-      </c>
-      <c r="F83">
-        <v>1</v>
-      </c>
-      <c r="G83">
-        <v>0</v>
-      </c>
-      <c r="H83" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
+        <v>253</v>
+      </c>
+      <c r="B84" t="s">
+        <v>254</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+      <c r="E84" t="s">
+        <v>516</v>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84" t="s">
         <v>255</v>
-      </c>
-      <c r="B84" t="s">
-        <v>256</v>
-      </c>
-      <c r="C84">
-        <v>0</v>
-      </c>
-      <c r="D84">
-        <v>1</v>
-      </c>
-      <c r="E84" t="s">
-        <v>518</v>
-      </c>
-      <c r="F84">
-        <v>1</v>
-      </c>
-      <c r="G84">
-        <v>0</v>
-      </c>
-      <c r="H84" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
+        <v>256</v>
+      </c>
+      <c r="B85" t="s">
+        <v>257</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85" t="s">
+        <v>517</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85" t="s">
         <v>258</v>
-      </c>
-      <c r="B85" t="s">
-        <v>259</v>
-      </c>
-      <c r="C85">
-        <v>1</v>
-      </c>
-      <c r="D85">
-        <v>0</v>
-      </c>
-      <c r="E85" t="s">
-        <v>519</v>
-      </c>
-      <c r="F85">
-        <v>1</v>
-      </c>
-      <c r="G85">
-        <v>0</v>
-      </c>
-      <c r="H85" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B86" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -14370,7 +14376,7 @@
         <v>0</v>
       </c>
       <c r="E86" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F86">
         <v>1</v>
@@ -14379,272 +14385,272 @@
         <v>0</v>
       </c>
       <c r="H86" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
+        <v>261</v>
+      </c>
+      <c r="B87" t="s">
+        <v>262</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87" t="s">
+        <v>518</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87" t="s">
         <v>263</v>
-      </c>
-      <c r="B87" t="s">
-        <v>264</v>
-      </c>
-      <c r="C87">
-        <v>0</v>
-      </c>
-      <c r="D87">
-        <v>0</v>
-      </c>
-      <c r="E87" t="s">
-        <v>520</v>
-      </c>
-      <c r="F87">
-        <v>0</v>
-      </c>
-      <c r="G87">
-        <v>0</v>
-      </c>
-      <c r="H87" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
+        <v>264</v>
+      </c>
+      <c r="B88" t="s">
+        <v>265</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88" t="s">
+        <v>519</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88" t="s">
         <v>266</v>
-      </c>
-      <c r="B88" t="s">
-        <v>267</v>
-      </c>
-      <c r="C88">
-        <v>1</v>
-      </c>
-      <c r="D88">
-        <v>0</v>
-      </c>
-      <c r="E88" t="s">
-        <v>521</v>
-      </c>
-      <c r="F88">
-        <v>1</v>
-      </c>
-      <c r="G88">
-        <v>0</v>
-      </c>
-      <c r="H88" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
+        <v>267</v>
+      </c>
+      <c r="B89" t="s">
+        <v>268</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89" t="s">
+        <v>520</v>
+      </c>
+      <c r="F89">
+        <v>1</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89" t="s">
         <v>269</v>
-      </c>
-      <c r="B89" t="s">
-        <v>270</v>
-      </c>
-      <c r="C89">
-        <v>1</v>
-      </c>
-      <c r="D89">
-        <v>0</v>
-      </c>
-      <c r="E89" t="s">
-        <v>522</v>
-      </c>
-      <c r="F89">
-        <v>1</v>
-      </c>
-      <c r="G89">
-        <v>0</v>
-      </c>
-      <c r="H89" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
+        <v>270</v>
+      </c>
+      <c r="B90" t="s">
+        <v>271</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90" t="s">
+        <v>521</v>
+      </c>
+      <c r="F90">
+        <v>1</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90" t="s">
         <v>272</v>
-      </c>
-      <c r="B90" t="s">
-        <v>273</v>
-      </c>
-      <c r="C90">
-        <v>1</v>
-      </c>
-      <c r="D90">
-        <v>0</v>
-      </c>
-      <c r="E90" t="s">
-        <v>523</v>
-      </c>
-      <c r="F90">
-        <v>1</v>
-      </c>
-      <c r="G90">
-        <v>0</v>
-      </c>
-      <c r="H90" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
+        <v>273</v>
+      </c>
+      <c r="B91" t="s">
+        <v>274</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91" t="s">
+        <v>522</v>
+      </c>
+      <c r="F91">
+        <v>1</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91" t="s">
         <v>275</v>
-      </c>
-      <c r="B91" t="s">
-        <v>276</v>
-      </c>
-      <c r="C91">
-        <v>1</v>
-      </c>
-      <c r="D91">
-        <v>0</v>
-      </c>
-      <c r="E91" t="s">
-        <v>524</v>
-      </c>
-      <c r="F91">
-        <v>1</v>
-      </c>
-      <c r="G91">
-        <v>0</v>
-      </c>
-      <c r="H91" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
+        <v>276</v>
+      </c>
+      <c r="B92" t="s">
+        <v>277</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92" t="s">
+        <v>523</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92" t="s">
         <v>278</v>
-      </c>
-      <c r="B92" t="s">
-        <v>279</v>
-      </c>
-      <c r="C92">
-        <v>1</v>
-      </c>
-      <c r="D92">
-        <v>0</v>
-      </c>
-      <c r="E92" t="s">
-        <v>525</v>
-      </c>
-      <c r="F92">
-        <v>1</v>
-      </c>
-      <c r="G92">
-        <v>0</v>
-      </c>
-      <c r="H92" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
+        <v>279</v>
+      </c>
+      <c r="B93" t="s">
+        <v>280</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93" t="s">
+        <v>524</v>
+      </c>
+      <c r="F93">
+        <v>1</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93" t="s">
         <v>281</v>
-      </c>
-      <c r="B93" t="s">
-        <v>282</v>
-      </c>
-      <c r="C93">
-        <v>1</v>
-      </c>
-      <c r="D93">
-        <v>0</v>
-      </c>
-      <c r="E93" t="s">
-        <v>526</v>
-      </c>
-      <c r="F93">
-        <v>1</v>
-      </c>
-      <c r="G93">
-        <v>0</v>
-      </c>
-      <c r="H93" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
+        <v>282</v>
+      </c>
+      <c r="B94" t="s">
+        <v>283</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+      <c r="E94" t="s">
+        <v>525</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94" t="s">
         <v>284</v>
-      </c>
-      <c r="B94" t="s">
-        <v>285</v>
-      </c>
-      <c r="C94">
-        <v>0</v>
-      </c>
-      <c r="D94">
-        <v>1</v>
-      </c>
-      <c r="E94" t="s">
-        <v>527</v>
-      </c>
-      <c r="F94">
-        <v>1</v>
-      </c>
-      <c r="G94">
-        <v>0</v>
-      </c>
-      <c r="H94" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
+        <v>285</v>
+      </c>
+      <c r="B95" t="s">
+        <v>286</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95" t="s">
+        <v>526</v>
+      </c>
+      <c r="F95">
+        <v>1</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95" t="s">
         <v>287</v>
-      </c>
-      <c r="B95" t="s">
-        <v>288</v>
-      </c>
-      <c r="C95">
-        <v>1</v>
-      </c>
-      <c r="D95">
-        <v>0</v>
-      </c>
-      <c r="E95" t="s">
-        <v>528</v>
-      </c>
-      <c r="F95">
-        <v>1</v>
-      </c>
-      <c r="G95">
-        <v>0</v>
-      </c>
-      <c r="H95" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
+        <v>288</v>
+      </c>
+      <c r="B96" t="s">
+        <v>289</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96" t="s">
+        <v>527</v>
+      </c>
+      <c r="F96">
+        <v>1</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96" t="s">
         <v>290</v>
-      </c>
-      <c r="B96" t="s">
-        <v>291</v>
-      </c>
-      <c r="C96">
-        <v>1</v>
-      </c>
-      <c r="D96">
-        <v>0</v>
-      </c>
-      <c r="E96" t="s">
-        <v>529</v>
-      </c>
-      <c r="F96">
-        <v>1</v>
-      </c>
-      <c r="G96">
-        <v>0</v>
-      </c>
-      <c r="H96" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -14653,7 +14659,7 @@
         <v>0</v>
       </c>
       <c r="E97" t="s">
-        <v>294</v>
+        <v>528</v>
       </c>
       <c r="F97">
         <v>0</v>
@@ -14662,15 +14668,15 @@
         <v>0</v>
       </c>
       <c r="H97" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B98" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -14679,7 +14685,7 @@
         <v>0</v>
       </c>
       <c r="E98" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F98">
         <v>1</v>
@@ -14688,15 +14694,15 @@
         <v>0</v>
       </c>
       <c r="H98" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B99" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -14705,7 +14711,7 @@
         <v>0</v>
       </c>
       <c r="E99" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F99">
         <v>1</v>
@@ -14714,15 +14720,15 @@
         <v>0</v>
       </c>
       <c r="H99" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B100" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -14731,7 +14737,7 @@
         <v>0</v>
       </c>
       <c r="E100" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F100">
         <v>1</v>
@@ -14740,15 +14746,15 @@
         <v>0</v>
       </c>
       <c r="H100" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B101" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -14757,7 +14763,7 @@
         <v>0</v>
       </c>
       <c r="E101" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="F101">
         <v>1</v>
@@ -14766,15 +14772,15 @@
         <v>0</v>
       </c>
       <c r="H101" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B102" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -14783,7 +14789,7 @@
         <v>0</v>
       </c>
       <c r="E102" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="F102">
         <v>1</v>
@@ -14792,15 +14798,15 @@
         <v>0</v>
       </c>
       <c r="H102" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B103" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -14809,7 +14815,7 @@
         <v>0</v>
       </c>
       <c r="E103" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="F103">
         <v>1</v>
@@ -14818,15 +14824,15 @@
         <v>0</v>
       </c>
       <c r="H103" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B104" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -14835,7 +14841,7 @@
         <v>0</v>
       </c>
       <c r="E104" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F104">
         <v>1</v>
@@ -14844,15 +14850,15 @@
         <v>0</v>
       </c>
       <c r="H104" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B105" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -14861,7 +14867,7 @@
         <v>0</v>
       </c>
       <c r="E105" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F105">
         <v>1</v>
@@ -14870,15 +14876,15 @@
         <v>0</v>
       </c>
       <c r="H105" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B106" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -14887,7 +14893,7 @@
         <v>0</v>
       </c>
       <c r="E106" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F106">
         <v>1</v>
@@ -14896,15 +14902,15 @@
         <v>0</v>
       </c>
       <c r="H106" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B107" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -14913,7 +14919,7 @@
         <v>0</v>
       </c>
       <c r="E107" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="F107">
         <v>1</v>
@@ -14922,15 +14928,15 @@
         <v>0</v>
       </c>
       <c r="H107" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B108" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C108">
         <v>0</v>
@@ -14939,7 +14945,7 @@
         <v>1</v>
       </c>
       <c r="E108" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="F108">
         <v>1</v>
@@ -14948,15 +14954,15 @@
         <v>0</v>
       </c>
       <c r="H108" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B109" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -14965,7 +14971,7 @@
         <v>1</v>
       </c>
       <c r="E109" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="F109">
         <v>1</v>
@@ -14974,15 +14980,15 @@
         <v>0</v>
       </c>
       <c r="H109" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B110" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -14991,7 +14997,7 @@
         <v>0</v>
       </c>
       <c r="E110" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="F110">
         <v>1</v>
@@ -15000,15 +15006,15 @@
         <v>0</v>
       </c>
       <c r="H110" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B111" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -15017,7 +15023,7 @@
         <v>0</v>
       </c>
       <c r="E111" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F111">
         <v>1</v>
@@ -15026,15 +15032,15 @@
         <v>0</v>
       </c>
       <c r="H111" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B112" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -15043,7 +15049,7 @@
         <v>0</v>
       </c>
       <c r="E112" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F112">
         <v>1</v>
@@ -15052,15 +15058,15 @@
         <v>0</v>
       </c>
       <c r="H112" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B113" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -15069,7 +15075,7 @@
         <v>0</v>
       </c>
       <c r="E113" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="F113">
         <v>1</v>
@@ -15078,15 +15084,15 @@
         <v>0</v>
       </c>
       <c r="H113" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B114" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C114">
         <v>0</v>
@@ -15095,7 +15101,7 @@
         <v>1</v>
       </c>
       <c r="E114" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="F114">
         <v>1</v>
@@ -15104,15 +15110,15 @@
         <v>0</v>
       </c>
       <c r="H114" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B115" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -15121,7 +15127,7 @@
         <v>0</v>
       </c>
       <c r="E115" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F115">
         <v>1</v>
@@ -15130,15 +15136,15 @@
         <v>0</v>
       </c>
       <c r="H115" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B116" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -15147,7 +15153,7 @@
         <v>0</v>
       </c>
       <c r="E116" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F116">
         <v>1</v>
@@ -15156,15 +15162,15 @@
         <v>0</v>
       </c>
       <c r="H116" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B117" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -15173,7 +15179,7 @@
         <v>0</v>
       </c>
       <c r="E117" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="F117">
         <v>1</v>
@@ -15182,15 +15188,15 @@
         <v>0</v>
       </c>
       <c r="H117" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B118" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -15199,7 +15205,7 @@
         <v>0</v>
       </c>
       <c r="E118" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F118">
         <v>1</v>
@@ -15208,15 +15214,15 @@
         <v>0</v>
       </c>
       <c r="H118" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B119" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -15225,7 +15231,7 @@
         <v>0</v>
       </c>
       <c r="E119" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F119">
         <v>1</v>
@@ -15234,15 +15240,15 @@
         <v>0</v>
       </c>
       <c r="H119" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B120" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -15251,7 +15257,7 @@
         <v>0</v>
       </c>
       <c r="E120" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F120">
         <v>1</v>
@@ -15260,15 +15266,15 @@
         <v>0</v>
       </c>
       <c r="H120" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B121" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -15277,7 +15283,7 @@
         <v>0</v>
       </c>
       <c r="E121" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F121">
         <v>1</v>
@@ -15286,15 +15292,15 @@
         <v>0</v>
       </c>
       <c r="H121" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B122" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -15303,7 +15309,7 @@
         <v>0</v>
       </c>
       <c r="E122" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F122">
         <v>1</v>
@@ -15312,15 +15318,15 @@
         <v>0</v>
       </c>
       <c r="H122" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B123" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -15329,7 +15335,7 @@
         <v>0</v>
       </c>
       <c r="E123" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="F123">
         <v>1</v>
@@ -15338,15 +15344,15 @@
         <v>0</v>
       </c>
       <c r="H123" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B124" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -15355,7 +15361,7 @@
         <v>0</v>
       </c>
       <c r="E124" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F124">
         <v>1</v>
@@ -15364,15 +15370,15 @@
         <v>0</v>
       </c>
       <c r="H124" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B125" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -15381,7 +15387,7 @@
         <v>0</v>
       </c>
       <c r="E125" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F125">
         <v>1</v>
@@ -15390,15 +15396,15 @@
         <v>0</v>
       </c>
       <c r="H125" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B126" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -15407,7 +15413,7 @@
         <v>0</v>
       </c>
       <c r="E126" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="F126">
         <v>1</v>
@@ -15416,15 +15422,15 @@
         <v>0</v>
       </c>
       <c r="H126" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B127" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -15433,7 +15439,7 @@
         <v>0</v>
       </c>
       <c r="E127" t="s">
-        <v>384</v>
+        <v>558</v>
       </c>
       <c r="F127">
         <v>1</v>
@@ -15442,15 +15448,15 @@
         <v>0</v>
       </c>
       <c r="H127" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B128" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -15468,15 +15474,15 @@
         <v>0</v>
       </c>
       <c r="H128" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="B129" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C129">
         <v>1</v>
@@ -15494,15 +15500,15 @@
         <v>0</v>
       </c>
       <c r="H129" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B130" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C130">
         <v>1</v>
@@ -15511,7 +15517,7 @@
         <v>0</v>
       </c>
       <c r="E130" t="s">
-        <v>561</v>
+        <v>503</v>
       </c>
       <c r="F130">
         <v>1</v>
@@ -15520,15 +15526,15 @@
         <v>0</v>
       </c>
       <c r="H130" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="B131" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C131">
         <v>1</v>
@@ -15537,7 +15543,7 @@
         <v>0</v>
       </c>
       <c r="E131" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F131">
         <v>1</v>
@@ -15546,15 +15552,15 @@
         <v>0</v>
       </c>
       <c r="H131" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B132" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C132">
         <v>1</v>
@@ -15563,7 +15569,7 @@
         <v>0</v>
       </c>
       <c r="E132" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F132">
         <v>1</v>
@@ -15572,15 +15578,15 @@
         <v>0</v>
       </c>
       <c r="H132" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B133" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C133">
         <v>1</v>
@@ -15589,7 +15595,7 @@
         <v>0</v>
       </c>
       <c r="E133" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F133">
         <v>1</v>
@@ -15598,15 +15604,15 @@
         <v>0</v>
       </c>
       <c r="H133" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B134" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="C134">
         <v>1</v>
@@ -15615,7 +15621,7 @@
         <v>0</v>
       </c>
       <c r="E134" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="F134">
         <v>1</v>
@@ -15624,15 +15630,15 @@
         <v>0</v>
       </c>
       <c r="H134" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B135" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C135">
         <v>1</v>
@@ -15641,7 +15647,7 @@
         <v>0</v>
       </c>
       <c r="E135" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F135">
         <v>1</v>
@@ -15650,15 +15656,15 @@
         <v>0</v>
       </c>
       <c r="H135" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B136" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C136">
         <v>0</v>
@@ -15667,7 +15673,7 @@
         <v>0</v>
       </c>
       <c r="E136" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F136">
         <v>0</v>
@@ -15676,15 +15682,15 @@
         <v>0</v>
       </c>
       <c r="H136" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B137" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C137">
         <v>1</v>
@@ -15693,7 +15699,7 @@
         <v>0</v>
       </c>
       <c r="E137" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="F137">
         <v>1</v>
@@ -15702,15 +15708,15 @@
         <v>0</v>
       </c>
       <c r="H137" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B138" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="C138">
         <v>0</v>
@@ -15719,7 +15725,7 @@
         <v>1</v>
       </c>
       <c r="E138" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="F138">
         <v>1</v>
@@ -15728,15 +15734,15 @@
         <v>0</v>
       </c>
       <c r="H138" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="B139" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="C139">
         <v>0</v>
@@ -15745,7 +15751,7 @@
         <v>0</v>
       </c>
       <c r="E139" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="F139">
         <v>0</v>
@@ -15754,15 +15760,15 @@
         <v>0</v>
       </c>
       <c r="H139" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="B140" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C140">
         <v>1</v>
@@ -15771,7 +15777,7 @@
         <v>0</v>
       </c>
       <c r="E140" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="F140">
         <v>1</v>
@@ -15780,15 +15786,15 @@
         <v>0</v>
       </c>
       <c r="H140" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="B141" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C141">
         <v>1</v>
@@ -15797,7 +15803,7 @@
         <v>0</v>
       </c>
       <c r="E141" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="F141">
         <v>1</v>
@@ -15806,15 +15812,15 @@
         <v>0</v>
       </c>
       <c r="H141" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B142" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C142">
         <v>1</v>
@@ -15823,7 +15829,7 @@
         <v>0</v>
       </c>
       <c r="E142" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="F142">
         <v>1</v>
@@ -15832,15 +15838,15 @@
         <v>0</v>
       </c>
       <c r="H142" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="B143" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C143">
         <v>1</v>
@@ -15849,7 +15855,7 @@
         <v>0</v>
       </c>
       <c r="E143" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="F143">
         <v>1</v>
@@ -15857,16 +15863,16 @@
       <c r="G143">
         <v>0</v>
       </c>
-      <c r="H143" t="s">
-        <v>432</v>
+      <c r="H143" s="2" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="B144" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="C144">
         <v>1</v>
@@ -15875,7 +15881,7 @@
         <v>0</v>
       </c>
       <c r="E144" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F144">
         <v>1</v>
@@ -15884,15 +15890,15 @@
         <v>0</v>
       </c>
       <c r="H144" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B145" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="C145">
         <v>1</v>
@@ -15901,7 +15907,7 @@
         <v>0</v>
       </c>
       <c r="E145" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="F145">
         <v>1</v>
@@ -15910,10 +15916,11 @@
         <v>0</v>
       </c>
       <c r="H145" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>